--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Loan_Portfolio_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131A362-7C75-4D1C-BDC8-D9362248F881}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9599261-77F2-42B0-9E55-EF9BA017CD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Performance" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: December, 2020           Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 01/26/2021 5:26:16PM</t>
+    <t>Printed on: 02/10/2021 4:46:11AM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -1036,7 +1036,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-0386-41EE-AFFA-81E6F8520B3A}"/>
+                <c16:uniqueId val="{00000000-00B8-4EC8-92B1-8C574F8FDEC7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1050,7 +1050,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0386-41EE-AFFA-81E6F8520B3A}"/>
+                <c16:uniqueId val="{00000001-00B8-4EC8-92B1-8C574F8FDEC7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1064,7 +1064,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0386-41EE-AFFA-81E6F8520B3A}"/>
+                <c16:uniqueId val="{00000002-00B8-4EC8-92B1-8C574F8FDEC7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1078,7 +1078,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0386-41EE-AFFA-81E6F8520B3A}"/>
+                <c16:uniqueId val="{00000003-00B8-4EC8-92B1-8C574F8FDEC7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1116,7 +1116,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-0386-41EE-AFFA-81E6F8520B3A}"/>
+                  <c16:uniqueId val="{00000002-00B8-4EC8-92B1-8C574F8FDEC7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1217,7 +1217,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0386-41EE-AFFA-81E6F8520B3A}"/>
+              <c16:uniqueId val="{00000004-00B8-4EC8-92B1-8C574F8FDEC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1320,7 +1320,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-076B-45D7-ACC0-93E6853A08D5}"/>
+                <c16:uniqueId val="{00000000-7ED6-427D-BE38-3930E9EC1464}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1334,7 +1334,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-076B-45D7-ACC0-93E6853A08D5}"/>
+                <c16:uniqueId val="{00000001-7ED6-427D-BE38-3930E9EC1464}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1348,7 +1348,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-076B-45D7-ACC0-93E6853A08D5}"/>
+                <c16:uniqueId val="{00000002-7ED6-427D-BE38-3930E9EC1464}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1362,7 +1362,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-076B-45D7-ACC0-93E6853A08D5}"/>
+                <c16:uniqueId val="{00000003-7ED6-427D-BE38-3930E9EC1464}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1428,7 +1428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-076B-45D7-ACC0-93E6853A08D5}"/>
+              <c16:uniqueId val="{00000004-7ED6-427D-BE38-3930E9EC1464}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2574,15 +2574,15 @@
       <c r="D10" s="61"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>1.6226712038826612</v>
+        <v>1.622055850866664</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>112.64365776635614</v>
+        <v>112.39913034404235</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>112.0641378119622</v>
+        <v>111.82042471444237</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2904,15 +2904,15 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!E101:E114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>110.28689430690054</v>
+        <v>110.05040096748084</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!F101:F114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>109.71949923800501</v>
+        <v>109.48378816198424</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G114)</f>
-        <v>109856.64861205257</v>
+        <v>109620.64289718679</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H114)</f>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="N17" s="17">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!N101:N114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>229.50650778029066</v>
+        <v>229.44769779936803</v>
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!O101:O114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
@@ -2946,71 +2946,71 @@
       </c>
       <c r="Q17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Q101:Q114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.4274654361272403</v>
+        <v>2.4269549584090271</v>
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!R101:R114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.34477264118632944</v>
+        <v>0.34425038889541304</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!S101:S114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-5.3133942672246984E-2</v>
+        <v>-5.3319743160426855E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!T101:T114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.33103250536857848</v>
+        <v>0.33112520513167737</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!U101:U114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.8047942322445791</v>
+        <v>1.804899107542363</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!V101:V114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.9161904532132752</v>
+        <v>1.9160119263859927</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!W101:W114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.8966615874471433</v>
+        <v>2.8916955169394507</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!X101:X114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.1501860770010319</v>
+        <v>2.159827881856395</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-0.35596288200349746</v>
+        <v>-0.35375324946543407</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>3.7420401319819892E-2</v>
+        <v>3.6376659255518549E-2</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.86161971335168352</v>
+        <v>0.85619776402478398</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.6552611038553935</v>
+        <v>2.6515505107432773</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>14.403367346327887</v>
+        <v>14.402097971905016</v>
       </c>
       <c r="AD17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AD101:AD114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>16.671263204997746</v>
+        <v>16.65227243938017</v>
       </c>
       <c r="AE17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AE101:AE114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>0.27301241190761549</v>
+        <v>0.27302065670172282</v>
       </c>
       <c r="AF17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AF101:AF114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>0.39226214530406989</v>
+        <v>0.39171328514496878</v>
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG114)</f>
-        <v>883.03421424989335</v>
+        <v>880.18353152753957</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3093,13 +3093,13 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="23">
-        <v>109.0674588648</v>
+        <v>108.83998563750001</v>
       </c>
       <c r="F20" s="23">
-        <v>108.49998870025055</v>
+        <v>108.27252119499065</v>
       </c>
       <c r="G20" s="26">
-        <v>2896.9496982966898</v>
+        <v>2890.8763159062501</v>
       </c>
       <c r="H20" s="26">
         <v>2670</v>
@@ -3123,40 +3123,40 @@
         <v>75</v>
       </c>
       <c r="Q20" s="30">
-        <v>2.6348340399999999</v>
+        <v>2.6361271099999999</v>
       </c>
       <c r="R20" s="30">
-        <v>0.16635632999999977</v>
+        <v>0.16639642999999996</v>
       </c>
       <c r="S20" s="30">
-        <v>5.49E-6</v>
+        <v>5.5500000000000002E-6</v>
       </c>
       <c r="T20" s="30">
-        <v>0.473103</v>
+        <v>0.47368157</v>
       </c>
       <c r="U20" s="30">
-        <v>1.9953692200000002</v>
+        <v>1.9960435599999999</v>
       </c>
       <c r="V20" s="30">
-        <v>1.9953586499999998</v>
+        <v>1.99607315</v>
       </c>
       <c r="W20" s="23">
-        <v>2.9502498758000004</v>
+        <v>2.9502498757999995</v>
       </c>
       <c r="X20" s="23">
-        <v>2.7064085239812967</v>
+        <v>2.7085970481359984</v>
       </c>
       <c r="Y20" s="23">
-        <v>7.128006517443039E-2</v>
+        <v>7.1591465831577702E-2</v>
       </c>
       <c r="Z20" s="31">
         <v>0</v>
       </c>
       <c r="AA20" s="23">
-        <v>0.89842387639999999</v>
+        <v>0.89691108680000009</v>
       </c>
       <c r="AB20" s="23">
-        <v>2.7074016556006164</v>
+        <v>2.7095796342031306</v>
       </c>
       <c r="AC20" s="23">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG20" s="26">
-        <v>36.8935680180278</v>
+        <v>36.893196007916799</v>
       </c>
     </row>
     <row r="21" spans="1:33" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,13 +3182,13 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="23">
-        <v>109.0674588648</v>
+        <v>108.83998563750001</v>
       </c>
       <c r="F21" s="23">
-        <v>108.49998870025055</v>
+        <v>108.27252119499056</v>
       </c>
       <c r="G21" s="26">
-        <v>1952.99979660451</v>
+        <v>1948.90538150983</v>
       </c>
       <c r="H21" s="26">
         <v>1800</v>
@@ -3212,40 +3212,40 @@
         <v>75</v>
       </c>
       <c r="Q21" s="30">
-        <v>2.6348340399999999</v>
+        <v>2.6361271099999999</v>
       </c>
       <c r="R21" s="30">
-        <v>0.16635632999999944</v>
+        <v>0.16639642999999996</v>
       </c>
       <c r="S21" s="30">
-        <v>5.49E-6</v>
+        <v>5.5500000000000002E-6</v>
       </c>
       <c r="T21" s="30">
-        <v>0.47310300000000005</v>
+        <v>0.47368157</v>
       </c>
       <c r="U21" s="30">
-        <v>1.9953692200000004</v>
+        <v>1.9960435599999999</v>
       </c>
       <c r="V21" s="30">
-        <v>1.9953586499999998</v>
+        <v>1.99607315</v>
       </c>
       <c r="W21" s="23">
         <v>2.9502498758</v>
       </c>
       <c r="X21" s="23">
-        <v>2.7064085239791473</v>
+        <v>2.7085970481365949</v>
       </c>
       <c r="Y21" s="23">
-        <v>7.1280065180421584E-2</v>
+        <v>7.1591465867220302E-2</v>
       </c>
       <c r="Z21" s="31">
         <v>0</v>
       </c>
       <c r="AA21" s="23">
-        <v>0.89842387639999999</v>
+        <v>0.89691108679999998</v>
       </c>
       <c r="AB21" s="23">
-        <v>2.7074016556007465</v>
+        <v>2.7095796342016354</v>
       </c>
       <c r="AC21" s="23">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG21" s="26">
-        <v>24.872068326760303</v>
+        <v>24.871817533427002</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3343,13 +3343,13 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23">
-        <v>104.2324675022</v>
+        <v>104.1384890954</v>
       </c>
       <c r="F24" s="23">
-        <v>103.92656784119379</v>
+        <v>103.83276234284072</v>
       </c>
       <c r="G24" s="26">
-        <v>6355.1096234890001</v>
+        <v>6349.37341726471</v>
       </c>
       <c r="H24" s="26">
         <v>6115</v>
@@ -3373,40 +3373,40 @@
         <v>75</v>
       </c>
       <c r="Q24" s="30">
-        <v>2.0991235499999998</v>
+        <v>2.0994472599999998</v>
       </c>
       <c r="R24" s="30">
-        <v>0.13190889999999991</v>
+        <v>0.13189656999999988</v>
       </c>
       <c r="S24" s="30">
-        <v>-1.0900000000000002E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T24" s="30">
-        <v>0.24553719999999998</v>
+        <v>0.24569706999999999</v>
       </c>
       <c r="U24" s="30">
-        <v>1.7216785400000001</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="V24" s="30">
-        <v>1.7371317899999998</v>
+        <v>1.7373184500000001</v>
       </c>
       <c r="W24" s="23">
-        <v>1.5590782057000003</v>
+        <v>1.5581886845999999</v>
       </c>
       <c r="X24" s="23">
-        <v>1.4916658903494071</v>
+        <v>1.4911198157485033</v>
       </c>
       <c r="Y24" s="23">
-        <v>-7.5010357782236456E-2</v>
+        <v>-7.5109368288263437E-2</v>
       </c>
       <c r="Z24" s="31">
         <v>0</v>
       </c>
       <c r="AA24" s="23">
-        <v>0.33162517530000007</v>
+        <v>0.3307384531</v>
       </c>
       <c r="AB24" s="23">
-        <v>1.4972757842965769</v>
+        <v>1.4967336931238684</v>
       </c>
       <c r="AC24" s="23">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG24" s="26">
-        <v>23.2580210515675</v>
+        <v>23.2448745537089</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3504,13 +3504,13 @@
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="23">
-        <v>107.1561482744</v>
+        <v>106.9629606243</v>
       </c>
       <c r="F27" s="23">
-        <v>106.69245153455596</v>
+        <v>106.5000005886524</v>
       </c>
       <c r="G27" s="26">
-        <v>2068.76663525504</v>
+        <v>2065.0350114139701</v>
       </c>
       <c r="H27" s="26">
         <v>1939</v>
@@ -3534,55 +3534,55 @@
         <v>75</v>
       </c>
       <c r="Q27" s="30">
-        <v>3.04628963</v>
+        <v>3.0456438299999999</v>
       </c>
       <c r="R27" s="30">
-        <v>0.32245539000000023</v>
+        <v>0.3219758199999998</v>
       </c>
       <c r="S27" s="30">
         <v>1.039E-5</v>
       </c>
       <c r="T27" s="30">
-        <v>0.62657147999999996</v>
+        <v>0.62649506999999993</v>
       </c>
       <c r="U27" s="30">
-        <v>2.0972523700000001</v>
+        <v>2.0971625500000002</v>
       </c>
       <c r="V27" s="30">
-        <v>2.2761950900000003</v>
+        <v>2.2757418899999999</v>
       </c>
       <c r="W27" s="23">
-        <v>2.4482883603999999</v>
+        <v>2.4442177936</v>
       </c>
       <c r="X27" s="23">
-        <v>0.82855666975153597</v>
+        <v>0.84644766746987798</v>
       </c>
       <c r="Y27" s="23">
-        <v>-0.11313849199375947</v>
+        <v>-0.11218897298010655</v>
       </c>
       <c r="Z27" s="31">
-        <v>3.4166891999999997E-2</v>
+        <v>3.3052886300000001E-2</v>
       </c>
       <c r="AA27" s="23">
-        <v>1.000268151</v>
+        <v>0.99489934950000003</v>
       </c>
       <c r="AB27" s="23">
-        <v>2.2702711553186719</v>
+        <v>2.2668247286300516</v>
       </c>
       <c r="AC27" s="23">
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="AD27" s="23">
-        <v>24.999663209999998</v>
+        <v>24.99966109</v>
       </c>
       <c r="AE27" s="23">
-        <v>0.77089319000000001</v>
+        <v>0.77082987000000003</v>
       </c>
       <c r="AF27" s="23">
-        <v>0.65197095999999999</v>
+        <v>0.65067312999999993</v>
       </c>
       <c r="AG27" s="26">
-        <v>29.1511437376105</v>
+        <v>29.0521466005831</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3665,13 +3665,13 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="23">
-        <v>111.83049951540001</v>
+        <v>111.55729948859999</v>
       </c>
       <c r="F30" s="23">
-        <v>111.20224179882372</v>
+        <v>110.93025811258265</v>
       </c>
       <c r="G30" s="26">
-        <v>64276.007782138098</v>
+        <v>64118.798491653899</v>
       </c>
       <c r="H30" s="26">
         <v>57801</v>
@@ -3695,55 +3695,55 @@
         <v>75</v>
       </c>
       <c r="Q30" s="30">
-        <v>2.3093552000000002</v>
+        <v>2.3076975699999998</v>
       </c>
       <c r="R30" s="30">
-        <v>0.46485478000000008</v>
+        <v>0.46408656999999937</v>
       </c>
       <c r="S30" s="30">
-        <v>-9.0813119999999997E-2</v>
+        <v>-9.11579E-2</v>
       </c>
       <c r="T30" s="30">
-        <v>0.23164611000000002</v>
+        <v>0.23136666</v>
       </c>
       <c r="U30" s="30">
-        <v>1.7036674299999999</v>
+        <v>1.7034022400000004</v>
       </c>
       <c r="V30" s="30">
-        <v>1.8777081599999998</v>
+        <v>1.8769841299999996</v>
       </c>
       <c r="W30" s="23">
-        <v>3.3410052081999999</v>
+        <v>3.3341832447000002</v>
       </c>
       <c r="X30" s="23">
-        <v>2.2625878012053628</v>
+        <v>2.2784538772801217</v>
       </c>
       <c r="Y30" s="23">
-        <v>-0.59542897475289014</v>
+        <v>-0.59185103033212527</v>
       </c>
       <c r="Z30" s="31">
-        <v>6.11504166E-2</v>
+        <v>5.9474952300000002E-2</v>
       </c>
       <c r="AA30" s="23">
-        <v>1.0136403469999999</v>
+        <v>1.0061198879</v>
       </c>
       <c r="AB30" s="23">
-        <v>3.0599705416194651</v>
+        <v>3.0541587904924219</v>
       </c>
       <c r="AC30" s="23">
-        <v>21.591512009999999</v>
+        <v>21.589313560000001</v>
       </c>
       <c r="AD30" s="23">
-        <v>25.339716709999998</v>
+        <v>25.306820649999999</v>
       </c>
       <c r="AE30" s="23">
-        <v>0.11409498000000001</v>
+        <v>0.11411219</v>
       </c>
       <c r="AF30" s="23">
-        <v>0.32609893000000001</v>
+        <v>0.32520748999999999</v>
       </c>
       <c r="AG30" s="26">
-        <v>453.77062176611201</v>
+        <v>451.26878521170602</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3754,13 +3754,13 @@
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="23">
-        <v>107.1561482744</v>
+        <v>106.96296062429998</v>
       </c>
       <c r="F31" s="23">
-        <v>106.69245153455641</v>
+        <v>106.5000005886527</v>
       </c>
       <c r="G31" s="26">
-        <v>748.98100977258605</v>
+        <v>747.63000413234192</v>
       </c>
       <c r="H31" s="26">
         <v>702</v>
@@ -3784,55 +3784,55 @@
         <v>75</v>
       </c>
       <c r="Q31" s="30">
-        <v>3.04628963</v>
+        <v>3.0456438299999999</v>
       </c>
       <c r="R31" s="30">
-        <v>0.32245539000000023</v>
+        <v>0.3219758199999998</v>
       </c>
       <c r="S31" s="30">
         <v>1.0389999999999999E-5</v>
       </c>
       <c r="T31" s="30">
-        <v>0.62657147999999985</v>
+        <v>0.62649506999999993</v>
       </c>
       <c r="U31" s="30">
-        <v>2.0972523700000001</v>
+        <v>2.0971625500000002</v>
       </c>
       <c r="V31" s="30">
-        <v>2.2761950900000003</v>
+        <v>2.2757418899999999</v>
       </c>
       <c r="W31" s="23">
-        <v>2.4482883603999999</v>
+        <v>2.4442177936</v>
       </c>
       <c r="X31" s="23">
-        <v>0.82855666975120867</v>
+        <v>0.84644766746939892</v>
       </c>
       <c r="Y31" s="23">
-        <v>-0.11313849202483614</v>
+        <v>-0.1121889730417439</v>
       </c>
       <c r="Z31" s="31">
-        <v>3.4166891999999997E-2</v>
+        <v>3.3052886300000001E-2</v>
       </c>
       <c r="AA31" s="23">
-        <v>1.000268151</v>
+        <v>0.99489934949999992</v>
       </c>
       <c r="AB31" s="23">
-        <v>2.2702711553178512</v>
+        <v>2.2668247286294321</v>
       </c>
       <c r="AC31" s="23">
-        <v>24.999816670000001</v>
+        <v>24.999814409999999</v>
       </c>
       <c r="AD31" s="23">
-        <v>24.999663210000001</v>
+        <v>24.99966109</v>
       </c>
       <c r="AE31" s="23">
-        <v>0.77089319000000012</v>
+        <v>0.77082987000000003</v>
       </c>
       <c r="AF31" s="23">
-        <v>0.65197095999999999</v>
+        <v>0.65067312999999993</v>
       </c>
       <c r="AG31" s="26">
-        <v>10.5539468302232</v>
+        <v>10.5181056800461</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3915,13 +3915,13 @@
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="23">
-        <v>104.2324675022</v>
+        <v>104.1384890954</v>
       </c>
       <c r="F34" s="23">
-        <v>103.92656784119382</v>
+        <v>103.83276234284068</v>
       </c>
       <c r="G34" s="26">
-        <v>8637.3370532816298</v>
+        <v>8629.5408783135008</v>
       </c>
       <c r="H34" s="26">
         <v>8311.0000000000109</v>
@@ -3945,40 +3945,40 @@
         <v>75</v>
       </c>
       <c r="Q34" s="30">
-        <v>2.0991235499999998</v>
+        <v>2.0994472599999998</v>
       </c>
       <c r="R34" s="30">
-        <v>0.13190889999999991</v>
+        <v>0.13189656999999988</v>
       </c>
       <c r="S34" s="30">
-        <v>-1.0899999999999999E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T34" s="30">
-        <v>0.24553719999999998</v>
+        <v>0.24569706999999999</v>
       </c>
       <c r="U34" s="30">
-        <v>1.7216785400000001</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="V34" s="30">
-        <v>1.7371317899999998</v>
+        <v>1.7373184500000001</v>
       </c>
       <c r="W34" s="23">
-        <v>1.5590782057000001</v>
+        <v>1.5581886845999999</v>
       </c>
       <c r="X34" s="23">
-        <v>1.4916658903492586</v>
+        <v>1.4911198157486059</v>
       </c>
       <c r="Y34" s="23">
-        <v>-7.5010357800859531E-2</v>
+        <v>-7.5109368280194197E-2</v>
       </c>
       <c r="Z34" s="31">
         <v>0</v>
       </c>
       <c r="AA34" s="23">
-        <v>0.33162517530000002</v>
+        <v>0.3307384531</v>
       </c>
       <c r="AB34" s="23">
-        <v>1.4972757842971103</v>
+        <v>1.4967336931243069</v>
       </c>
       <c r="AC34" s="23">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG34" s="26">
-        <v>31.6103700669792</v>
+        <v>31.5925024392273</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,13 +4004,13 @@
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="23">
-        <v>104.2324675022</v>
+        <v>104.1384890954</v>
       </c>
       <c r="F35" s="23">
-        <v>103.92656784119409</v>
+        <v>103.83276234284077</v>
       </c>
       <c r="G35" s="26">
-        <v>561.20346634244697</v>
+        <v>560.69691665133905</v>
       </c>
       <c r="H35" s="26">
         <v>539.99999999999898</v>
@@ -4034,40 +4034,40 @@
         <v>75</v>
       </c>
       <c r="Q35" s="30">
-        <v>2.0991235499999998</v>
+        <v>2.0994472599999998</v>
       </c>
       <c r="R35" s="30">
-        <v>0.13190889999999991</v>
+        <v>0.13189656999999988</v>
       </c>
       <c r="S35" s="30">
-        <v>-1.0899999999999999E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T35" s="30">
-        <v>0.24553719999999998</v>
+        <v>0.24569706999999999</v>
       </c>
       <c r="U35" s="30">
-        <v>1.7216785400000001</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="V35" s="30">
-        <v>1.7371317899999998</v>
+        <v>1.7373184500000001</v>
       </c>
       <c r="W35" s="23">
-        <v>1.5590782057000001</v>
+        <v>1.5581886845999999</v>
       </c>
       <c r="X35" s="23">
-        <v>1.4916658903496549</v>
+        <v>1.4911198157477936</v>
       </c>
       <c r="Y35" s="23">
-        <v>-7.5010357818811199E-2</v>
+        <v>-7.5109368288271847E-2</v>
       </c>
       <c r="Z35" s="31">
         <v>0</v>
       </c>
       <c r="AA35" s="23">
-        <v>0.33162517530000002</v>
+        <v>0.3307384531</v>
       </c>
       <c r="AB35" s="23">
-        <v>1.4972757842968765</v>
+        <v>1.4967336931242698</v>
       </c>
       <c r="AC35" s="23">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG35" s="26">
-        <v>2.0538563152651999</v>
+        <v>2.0526953816849001</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4165,13 +4165,13 @@
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="23">
-        <v>105.35909860949999</v>
+        <v>105.2500088668</v>
       </c>
       <c r="F38" s="23">
-        <v>105.05215168113421</v>
+        <v>104.94326161267483</v>
       </c>
       <c r="G38" s="26">
-        <v>2184.03423345078</v>
+        <v>2181.7704089275098</v>
       </c>
       <c r="H38" s="26">
         <v>2079</v>
@@ -4195,40 +4195,40 @@
         <v>75</v>
       </c>
       <c r="Q38" s="30">
-        <v>2.0955901099999998</v>
+        <v>2.0959585000000001</v>
       </c>
       <c r="R38" s="30">
-        <v>0.13191197999999976</v>
+        <v>0.13189781999999992</v>
       </c>
       <c r="S38" s="30">
-        <v>-1.0899999999999999E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T38" s="30">
-        <v>0.24385577999999999</v>
+        <v>0.24403776999999999</v>
       </c>
       <c r="U38" s="30">
-        <v>1.7198234400000001</v>
+        <v>1.7200239900000001</v>
       </c>
       <c r="V38" s="30">
-        <v>1.7351414599999999</v>
+        <v>1.7353542900000001</v>
       </c>
       <c r="W38" s="23">
-        <v>1.5644608315999999</v>
+        <v>1.5634335582000001</v>
       </c>
       <c r="X38" s="23">
-        <v>1.4918303551988084</v>
+        <v>1.4912032717408166</v>
       </c>
       <c r="Y38" s="23">
-        <v>-7.4982755028318332E-2</v>
+        <v>-7.5096453379067854E-2</v>
       </c>
       <c r="Z38" s="31">
         <v>0</v>
       </c>
       <c r="AA38" s="23">
-        <v>0.33973872970000002</v>
+        <v>0.3387246927</v>
       </c>
       <c r="AB38" s="23">
-        <v>1.4974391632875654</v>
+        <v>1.4968166541594254</v>
       </c>
       <c r="AC38" s="23">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG38" s="26">
-        <v>7.9344181285464002</v>
+        <v>7.9292566543103007</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4326,13 +4326,13 @@
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="23">
-        <v>117.366699549808</v>
+        <v>117.01478496676501</v>
       </c>
       <c r="F41" s="23">
-        <v>116.78790926731781</v>
+        <v>116.43600380059979</v>
       </c>
       <c r="G41" s="26">
-        <v>10006.388066023801</v>
+        <v>9976.2368056354007</v>
       </c>
       <c r="H41" s="26">
         <v>8568.0000000000091</v>
@@ -4347,7 +4347,7 @@
         <v>15.567226890756308</v>
       </c>
       <c r="N41" s="26">
-        <v>43.400410677618069</v>
+        <v>43.367556468172481</v>
       </c>
       <c r="O41" s="26">
         <v>720</v>
@@ -4356,46 +4356,46 @@
         <v>75</v>
       </c>
       <c r="Q41" s="30">
-        <v>2.0342208497661649</v>
+        <v>2.0346510486883562</v>
       </c>
       <c r="R41" s="30">
-        <v>0.22456520143790901</v>
+        <v>0.22463407474585848</v>
       </c>
       <c r="S41" s="30">
-        <v>1.77089760909947E-5</v>
+        <v>1.7721452941656199E-5</v>
       </c>
       <c r="T41" s="30">
-        <v>0.25635104277077503</v>
+        <v>0.25676485943643601</v>
       </c>
       <c r="U41" s="30">
-        <v>1.55328689658139</v>
+        <v>1.5532343930531201</v>
       </c>
       <c r="V41" s="30">
-        <v>1.5489040222886998</v>
+        <v>1.5489928637836499</v>
       </c>
       <c r="W41" s="23">
-        <v>3.4710409454675406</v>
+        <v>3.4698543267522104</v>
       </c>
       <c r="X41" s="23">
-        <v>3.0529985225632497</v>
+        <v>3.0556412959593695</v>
       </c>
       <c r="Y41" s="23">
-        <v>0.10237611572875799</v>
+        <v>0.10273252435381752</v>
       </c>
       <c r="Z41" s="31">
-        <v>1.04805015121758E-5</v>
+        <v>9.9093372475249701E-6</v>
       </c>
       <c r="AA41" s="23">
-        <v>0.76726963582894703</v>
+        <v>0.76318847767426401</v>
       </c>
       <c r="AB41" s="23">
-        <v>3.054010739172563</v>
+        <v>3.0566434794575144</v>
       </c>
       <c r="AC41" s="23">
         <v>0</v>
       </c>
       <c r="AD41" s="23">
-        <v>1.21732031633403</v>
+        <v>1.2173202609243701</v>
       </c>
       <c r="AE41" s="23">
         <v>0.26791197478991602</v>
@@ -4404,7 +4404,7 @@
         <v>0.26791197478991602</v>
       </c>
       <c r="AG41" s="26">
-        <v>86.026378971487603</v>
+        <v>86.0250240000574</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4487,13 +4487,13 @@
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="23">
-        <v>106.7876538922</v>
+        <v>106.63704614730001</v>
       </c>
       <c r="F44" s="23">
-        <v>106.47017899419181</v>
+        <v>106.31988921025581</v>
       </c>
       <c r="G44" s="26">
-        <v>5506.6376575796003</v>
+        <v>5498.8646699544306</v>
       </c>
       <c r="H44" s="26">
         <v>5172</v>
@@ -4517,55 +4517,55 @@
         <v>75</v>
       </c>
       <c r="Q44" s="30">
-        <v>2.9072399299999998</v>
+        <v>2.9086846400000002</v>
       </c>
       <c r="R44" s="30">
-        <v>0.15325891000000011</v>
+        <v>0.15320475000000022</v>
       </c>
       <c r="S44" s="30">
-        <v>-1.9029999999999999E-5</v>
+        <v>-1.8860000000000002E-5</v>
       </c>
       <c r="T44" s="30">
-        <v>0.61084539999999998</v>
+        <v>0.61155354000000006</v>
       </c>
       <c r="U44" s="30">
-        <v>2.14315465</v>
+        <v>2.14394521</v>
       </c>
       <c r="V44" s="30">
-        <v>2.1779800200000001</v>
+        <v>2.1787610700000002</v>
       </c>
       <c r="W44" s="23">
-        <v>1.6338807551999999</v>
+        <v>1.6322213529999998</v>
       </c>
       <c r="X44" s="23">
-        <v>1.5402886371786371</v>
+        <v>1.5390142565464375</v>
       </c>
       <c r="Y44" s="23">
-        <v>-8.4979117949074298E-2</v>
+        <v>-8.5174422708358205E-2</v>
       </c>
       <c r="Z44" s="31">
-        <v>1.35765768E-2</v>
+        <v>1.32199932E-2</v>
       </c>
       <c r="AA44" s="23">
-        <v>0.56357124700000005</v>
+        <v>0.56192684940000004</v>
       </c>
       <c r="AB44" s="23">
-        <v>1.5466933465790638</v>
+        <v>1.5454260756757596</v>
       </c>
       <c r="AC44" s="23">
-        <v>17.999445099999999</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="AD44" s="23">
-        <v>17.998653969999999</v>
+        <v>17.99865157</v>
       </c>
       <c r="AE44" s="23">
-        <v>0.62373409000000002</v>
+        <v>0.62373369999999995</v>
       </c>
       <c r="AF44" s="23">
-        <v>0.62371724000000006</v>
+        <v>0.62371706000000005</v>
       </c>
       <c r="AG44" s="26">
-        <v>51.655597857720906</v>
+        <v>51.603846848438401</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,13 +4576,13 @@
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="23">
-        <v>102.5402961763</v>
+        <v>102.37639763180002</v>
       </c>
       <c r="F45" s="23">
-        <v>102.19568366495145</v>
+        <v>102.03215982457098</v>
       </c>
       <c r="G45" s="26">
-        <v>3577.87088510995</v>
+        <v>3572.1459154582299</v>
       </c>
       <c r="H45" s="26">
         <v>3501</v>
@@ -4606,46 +4606,46 @@
         <v>75</v>
       </c>
       <c r="Q45" s="30">
-        <v>5.7649322199999995</v>
+        <v>5.77005722</v>
       </c>
       <c r="R45" s="30">
-        <v>0.15950529999999957</v>
+        <v>0.15944853000000012</v>
       </c>
       <c r="S45" s="30">
-        <v>-4.0769999999999991E-5</v>
+        <v>-4.0399999999999999E-5</v>
       </c>
       <c r="T45" s="30">
-        <v>1.8935836399999999</v>
+        <v>1.8960054899999998</v>
       </c>
       <c r="U45" s="30">
-        <v>3.7118840500000001</v>
+        <v>3.7146435999999996</v>
       </c>
       <c r="V45" s="30">
-        <v>3.74738112</v>
+        <v>3.7501480099999998</v>
       </c>
       <c r="W45" s="23">
-        <v>1.8252888824</v>
+        <v>1.8232682134</v>
       </c>
       <c r="X45" s="23">
-        <v>1.6773801197428511</v>
+        <v>1.6759779377509993</v>
       </c>
       <c r="Y45" s="23">
-        <v>-6.2594319021235814E-2</v>
+        <v>-6.2797545118705556E-2</v>
       </c>
       <c r="Z45" s="31">
-        <v>2.5812515999999999E-3</v>
+        <v>2.3542666E-3</v>
       </c>
       <c r="AA45" s="23">
-        <v>1.2957635007999999</v>
+        <v>1.2941587534999999</v>
       </c>
       <c r="AB45" s="23">
-        <v>1.6829456733554176</v>
+        <v>1.6815506426504971</v>
       </c>
       <c r="AC45" s="23">
-        <v>9.9995784000000008</v>
+        <v>9.9995767000000004</v>
       </c>
       <c r="AD45" s="23">
-        <v>9.9988898899999992</v>
+        <v>9.9988879599999994</v>
       </c>
       <c r="AE45" s="23">
         <v>1.8504750000000001</v>
@@ -4654,7 +4654,7 @@
         <v>1.8504750000000001</v>
       </c>
       <c r="AG45" s="26">
-        <v>112.91144516275</v>
+        <v>112.78867427367</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4737,13 +4737,13 @@
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="23">
-        <v>117.1868150856</v>
+        <v>116.81125361150001</v>
       </c>
       <c r="F48" s="23">
-        <v>116.44333382533227</v>
+        <v>116.06778269230513</v>
       </c>
       <c r="G48" s="26">
-        <v>1114.3627047084299</v>
+        <v>1110.7686803653601</v>
       </c>
       <c r="H48" s="26">
         <v>957</v>
@@ -4767,40 +4767,40 @@
         <v>75</v>
       </c>
       <c r="Q48" s="30">
-        <v>2.3854172999999999</v>
+        <v>2.3869120399999999</v>
       </c>
       <c r="R48" s="30">
-        <v>0.2509572100000001</v>
+        <v>0.25110778000000028</v>
       </c>
       <c r="S48" s="30">
-        <v>2.228E-5</v>
+        <v>2.2310000000000002E-5</v>
       </c>
       <c r="T48" s="30">
-        <v>0.32426546000000001</v>
+        <v>0.32490353</v>
       </c>
       <c r="U48" s="30">
-        <v>1.81017235</v>
+        <v>1.8108784199999999</v>
       </c>
       <c r="V48" s="30">
-        <v>1.8064302000000001</v>
+        <v>1.8072868700000002</v>
       </c>
       <c r="W48" s="23">
         <v>3.8921105444999999</v>
       </c>
       <c r="X48" s="23">
-        <v>3.4366818585309713</v>
+        <v>3.4407239106551923</v>
       </c>
       <c r="Y48" s="23">
-        <v>0.1237814192096264</v>
+        <v>0.12423421927420432</v>
       </c>
       <c r="Z48" s="31">
         <v>0</v>
       </c>
       <c r="AA48" s="23">
-        <v>0.90549310780000003</v>
+        <v>0.90151935279999995</v>
       </c>
       <c r="AB48" s="23">
-        <v>3.4378055948823842</v>
+        <v>3.4418370780426137</v>
       </c>
       <c r="AC48" s="23">
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>0.34420000000000001</v>
       </c>
       <c r="AG48" s="26">
-        <v>12.3427780168428</v>
+        <v>12.3426063427634</v>
       </c>
     </row>
     <row r="49" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6699,15 +6699,15 @@
       </c>
       <c r="E101" s="5">
         <f>'Mortgage Performance'!E20</f>
-        <v>109.0674588648</v>
+        <v>108.83998563750001</v>
       </c>
       <c r="F101" s="5">
         <f>'Mortgage Performance'!F20</f>
-        <v>108.49998870025055</v>
+        <v>108.27252119499065</v>
       </c>
       <c r="G101" s="5">
         <f>'Mortgage Performance'!G20</f>
-        <v>2896.9496982966898</v>
+        <v>2890.8763159062501</v>
       </c>
       <c r="H101" s="5">
         <f>'Mortgage Performance'!H20</f>
@@ -6747,39 +6747,39 @@
       </c>
       <c r="Q101" s="5">
         <f>'Mortgage Performance'!Q20</f>
-        <v>2.6348340399999999</v>
+        <v>2.6361271099999999</v>
       </c>
       <c r="R101" s="5">
         <f>'Mortgage Performance'!R20</f>
-        <v>0.16635632999999977</v>
+        <v>0.16639642999999996</v>
       </c>
       <c r="S101" s="5">
         <f>'Mortgage Performance'!S20</f>
-        <v>5.49E-6</v>
+        <v>5.5500000000000002E-6</v>
       </c>
       <c r="T101" s="5">
         <f>'Mortgage Performance'!T20</f>
-        <v>0.473103</v>
+        <v>0.47368157</v>
       </c>
       <c r="U101" s="5">
         <f>'Mortgage Performance'!U20</f>
-        <v>1.9953692200000002</v>
+        <v>1.9960435599999999</v>
       </c>
       <c r="V101" s="5">
         <f>'Mortgage Performance'!V20</f>
-        <v>1.9953586499999998</v>
+        <v>1.99607315</v>
       </c>
       <c r="W101" s="5">
         <f>'Mortgage Performance'!W20</f>
-        <v>2.9502498758000004</v>
+        <v>2.9502498757999995</v>
       </c>
       <c r="X101" s="5">
         <f>'Mortgage Performance'!X20</f>
-        <v>2.7064085239812967</v>
+        <v>2.7085970481359984</v>
       </c>
       <c r="Y101" s="5">
         <f>'Mortgage Performance'!Y20</f>
-        <v>7.128006517443039E-2</v>
+        <v>7.1591465831577702E-2</v>
       </c>
       <c r="Z101" s="5">
         <f>'Mortgage Performance'!Z20</f>
@@ -6787,11 +6787,11 @@
       </c>
       <c r="AA101" s="5">
         <f>'Mortgage Performance'!AA20</f>
-        <v>0.89842387639999999</v>
+        <v>0.89691108680000009</v>
       </c>
       <c r="AB101" s="5">
         <f>'Mortgage Performance'!AB20</f>
-        <v>2.7074016556006164</v>
+        <v>2.7095796342031306</v>
       </c>
       <c r="AC101" s="5">
         <f>'Mortgage Performance'!AC20</f>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="AG101" s="5">
         <f>'Mortgage Performance'!AG20</f>
-        <v>36.8935680180278</v>
+        <v>36.893196007916799</v>
       </c>
       <c r="AH101" s="5">
         <f>'Mortgage Performance'!AH20</f>
@@ -6902,15 +6902,15 @@
       </c>
       <c r="E102" s="5">
         <f>'Mortgage Performance'!E21</f>
-        <v>109.0674588648</v>
+        <v>108.83998563750001</v>
       </c>
       <c r="F102" s="5">
         <f>'Mortgage Performance'!F21</f>
-        <v>108.49998870025055</v>
+        <v>108.27252119499056</v>
       </c>
       <c r="G102" s="5">
         <f>'Mortgage Performance'!G21</f>
-        <v>1952.99979660451</v>
+        <v>1948.90538150983</v>
       </c>
       <c r="H102" s="5">
         <f>'Mortgage Performance'!H21</f>
@@ -6950,27 +6950,27 @@
       </c>
       <c r="Q102" s="5">
         <f>'Mortgage Performance'!Q21</f>
-        <v>2.6348340399999999</v>
+        <v>2.6361271099999999</v>
       </c>
       <c r="R102" s="5">
         <f>'Mortgage Performance'!R21</f>
-        <v>0.16635632999999944</v>
+        <v>0.16639642999999996</v>
       </c>
       <c r="S102" s="5">
         <f>'Mortgage Performance'!S21</f>
-        <v>5.49E-6</v>
+        <v>5.5500000000000002E-6</v>
       </c>
       <c r="T102" s="5">
         <f>'Mortgage Performance'!T21</f>
-        <v>0.47310300000000005</v>
+        <v>0.47368157</v>
       </c>
       <c r="U102" s="5">
         <f>'Mortgage Performance'!U21</f>
-        <v>1.9953692200000004</v>
+        <v>1.9960435599999999</v>
       </c>
       <c r="V102" s="5">
         <f>'Mortgage Performance'!V21</f>
-        <v>1.9953586499999998</v>
+        <v>1.99607315</v>
       </c>
       <c r="W102" s="5">
         <f>'Mortgage Performance'!W21</f>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="X102" s="5">
         <f>'Mortgage Performance'!X21</f>
-        <v>2.7064085239791473</v>
+        <v>2.7085970481365949</v>
       </c>
       <c r="Y102" s="5">
         <f>'Mortgage Performance'!Y21</f>
-        <v>7.1280065180421584E-2</v>
+        <v>7.1591465867220302E-2</v>
       </c>
       <c r="Z102" s="5">
         <f>'Mortgage Performance'!Z21</f>
@@ -6990,11 +6990,11 @@
       </c>
       <c r="AA102" s="5">
         <f>'Mortgage Performance'!AA21</f>
-        <v>0.89842387639999999</v>
+        <v>0.89691108679999998</v>
       </c>
       <c r="AB102" s="5">
         <f>'Mortgage Performance'!AB21</f>
-        <v>2.7074016556007465</v>
+        <v>2.7095796342016354</v>
       </c>
       <c r="AC102" s="5">
         <f>'Mortgage Performance'!AC21</f>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="AG102" s="5">
         <f>'Mortgage Performance'!AG21</f>
-        <v>24.872068326760303</v>
+        <v>24.871817533427002</v>
       </c>
       <c r="AH102" s="5">
         <f>'Mortgage Performance'!AH21</f>
@@ -7105,15 +7105,15 @@
       </c>
       <c r="E103" s="5">
         <f>'Mortgage Performance'!E24</f>
-        <v>104.2324675022</v>
+        <v>104.1384890954</v>
       </c>
       <c r="F103" s="5">
         <f>'Mortgage Performance'!F24</f>
-        <v>103.92656784119379</v>
+        <v>103.83276234284072</v>
       </c>
       <c r="G103" s="5">
         <f>'Mortgage Performance'!G24</f>
-        <v>6355.1096234890001</v>
+        <v>6349.37341726471</v>
       </c>
       <c r="H103" s="5">
         <f>'Mortgage Performance'!H24</f>
@@ -7153,39 +7153,39 @@
       </c>
       <c r="Q103" s="5">
         <f>'Mortgage Performance'!Q24</f>
-        <v>2.0991235499999998</v>
+        <v>2.0994472599999998</v>
       </c>
       <c r="R103" s="5">
         <f>'Mortgage Performance'!R24</f>
-        <v>0.13190889999999991</v>
+        <v>0.13189656999999988</v>
       </c>
       <c r="S103" s="5">
         <f>'Mortgage Performance'!S24</f>
-        <v>-1.0900000000000002E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T103" s="5">
         <f>'Mortgage Performance'!T24</f>
-        <v>0.24553719999999998</v>
+        <v>0.24569706999999999</v>
       </c>
       <c r="U103" s="5">
         <f>'Mortgage Performance'!U24</f>
-        <v>1.7216785400000001</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="V103" s="5">
         <f>'Mortgage Performance'!V24</f>
-        <v>1.7371317899999998</v>
+        <v>1.7373184500000001</v>
       </c>
       <c r="W103" s="5">
         <f>'Mortgage Performance'!W24</f>
-        <v>1.5590782057000003</v>
+        <v>1.5581886845999999</v>
       </c>
       <c r="X103" s="5">
         <f>'Mortgage Performance'!X24</f>
-        <v>1.4916658903494071</v>
+        <v>1.4911198157485033</v>
       </c>
       <c r="Y103" s="5">
         <f>'Mortgage Performance'!Y24</f>
-        <v>-7.5010357782236456E-2</v>
+        <v>-7.5109368288263437E-2</v>
       </c>
       <c r="Z103" s="5">
         <f>'Mortgage Performance'!Z24</f>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="AA103" s="5">
         <f>'Mortgage Performance'!AA24</f>
-        <v>0.33162517530000007</v>
+        <v>0.3307384531</v>
       </c>
       <c r="AB103" s="5">
         <f>'Mortgage Performance'!AB24</f>
-        <v>1.4972757842965769</v>
+        <v>1.4967336931238684</v>
       </c>
       <c r="AC103" s="5">
         <f>'Mortgage Performance'!AC24</f>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="AG103" s="5">
         <f>'Mortgage Performance'!AG24</f>
-        <v>23.2580210515675</v>
+        <v>23.2448745537089</v>
       </c>
       <c r="AH103" s="5">
         <f>'Mortgage Performance'!AH24</f>
@@ -7308,15 +7308,15 @@
       </c>
       <c r="E104" s="5">
         <f>'Mortgage Performance'!E27</f>
-        <v>107.1561482744</v>
+        <v>106.9629606243</v>
       </c>
       <c r="F104" s="5">
         <f>'Mortgage Performance'!F27</f>
-        <v>106.69245153455596</v>
+        <v>106.5000005886524</v>
       </c>
       <c r="G104" s="5">
         <f>'Mortgage Performance'!G27</f>
-        <v>2068.76663525504</v>
+        <v>2065.0350114139701</v>
       </c>
       <c r="H104" s="5">
         <f>'Mortgage Performance'!H27</f>
@@ -7356,11 +7356,11 @@
       </c>
       <c r="Q104" s="5">
         <f>'Mortgage Performance'!Q27</f>
-        <v>3.04628963</v>
+        <v>3.0456438299999999</v>
       </c>
       <c r="R104" s="5">
         <f>'Mortgage Performance'!R27</f>
-        <v>0.32245539000000023</v>
+        <v>0.3219758199999998</v>
       </c>
       <c r="S104" s="5">
         <f>'Mortgage Performance'!S27</f>
@@ -7368,59 +7368,59 @@
       </c>
       <c r="T104" s="5">
         <f>'Mortgage Performance'!T27</f>
-        <v>0.62657147999999996</v>
+        <v>0.62649506999999993</v>
       </c>
       <c r="U104" s="5">
         <f>'Mortgage Performance'!U27</f>
-        <v>2.0972523700000001</v>
+        <v>2.0971625500000002</v>
       </c>
       <c r="V104" s="5">
         <f>'Mortgage Performance'!V27</f>
-        <v>2.2761950900000003</v>
+        <v>2.2757418899999999</v>
       </c>
       <c r="W104" s="5">
         <f>'Mortgage Performance'!W27</f>
-        <v>2.4482883603999999</v>
+        <v>2.4442177936</v>
       </c>
       <c r="X104" s="5">
         <f>'Mortgage Performance'!X27</f>
-        <v>0.82855666975153597</v>
+        <v>0.84644766746987798</v>
       </c>
       <c r="Y104" s="5">
         <f>'Mortgage Performance'!Y27</f>
-        <v>-0.11313849199375947</v>
+        <v>-0.11218897298010655</v>
       </c>
       <c r="Z104" s="5">
         <f>'Mortgage Performance'!Z27</f>
-        <v>3.4166891999999997E-2</v>
+        <v>3.3052886300000001E-2</v>
       </c>
       <c r="AA104" s="5">
         <f>'Mortgage Performance'!AA27</f>
-        <v>1.000268151</v>
+        <v>0.99489934950000003</v>
       </c>
       <c r="AB104" s="5">
         <f>'Mortgage Performance'!AB27</f>
-        <v>2.2702711553186719</v>
+        <v>2.2668247286300516</v>
       </c>
       <c r="AC104" s="5">
         <f>'Mortgage Performance'!AC27</f>
-        <v>24.999816669999998</v>
+        <v>24.999814410000003</v>
       </c>
       <c r="AD104" s="5">
         <f>'Mortgage Performance'!AD27</f>
-        <v>24.999663209999998</v>
+        <v>24.99966109</v>
       </c>
       <c r="AE104" s="5">
         <f>'Mortgage Performance'!AE27</f>
-        <v>0.77089319000000001</v>
+        <v>0.77082987000000003</v>
       </c>
       <c r="AF104" s="5">
         <f>'Mortgage Performance'!AF27</f>
-        <v>0.65197095999999999</v>
+        <v>0.65067312999999993</v>
       </c>
       <c r="AG104" s="5">
         <f>'Mortgage Performance'!AG27</f>
-        <v>29.1511437376105</v>
+        <v>29.0521466005831</v>
       </c>
       <c r="AH104" s="5">
         <f>'Mortgage Performance'!AH27</f>
@@ -7511,15 +7511,15 @@
       </c>
       <c r="E105" s="5">
         <f>'Mortgage Performance'!E30</f>
-        <v>111.83049951540001</v>
+        <v>111.55729948859999</v>
       </c>
       <c r="F105" s="5">
         <f>'Mortgage Performance'!F30</f>
-        <v>111.20224179882372</v>
+        <v>110.93025811258265</v>
       </c>
       <c r="G105" s="5">
         <f>'Mortgage Performance'!G30</f>
-        <v>64276.007782138098</v>
+        <v>64118.798491653899</v>
       </c>
       <c r="H105" s="5">
         <f>'Mortgage Performance'!H30</f>
@@ -7559,71 +7559,71 @@
       </c>
       <c r="Q105" s="5">
         <f>'Mortgage Performance'!Q30</f>
-        <v>2.3093552000000002</v>
+        <v>2.3076975699999998</v>
       </c>
       <c r="R105" s="5">
         <f>'Mortgage Performance'!R30</f>
-        <v>0.46485478000000008</v>
+        <v>0.46408656999999937</v>
       </c>
       <c r="S105" s="5">
         <f>'Mortgage Performance'!S30</f>
-        <v>-9.0813119999999997E-2</v>
+        <v>-9.11579E-2</v>
       </c>
       <c r="T105" s="5">
         <f>'Mortgage Performance'!T30</f>
-        <v>0.23164611000000002</v>
+        <v>0.23136666</v>
       </c>
       <c r="U105" s="5">
         <f>'Mortgage Performance'!U30</f>
-        <v>1.7036674299999999</v>
+        <v>1.7034022400000004</v>
       </c>
       <c r="V105" s="5">
         <f>'Mortgage Performance'!V30</f>
-        <v>1.8777081599999998</v>
+        <v>1.8769841299999996</v>
       </c>
       <c r="W105" s="5">
         <f>'Mortgage Performance'!W30</f>
-        <v>3.3410052081999999</v>
+        <v>3.3341832447000002</v>
       </c>
       <c r="X105" s="5">
         <f>'Mortgage Performance'!X30</f>
-        <v>2.2625878012053628</v>
+        <v>2.2784538772801217</v>
       </c>
       <c r="Y105" s="5">
         <f>'Mortgage Performance'!Y30</f>
-        <v>-0.59542897475289014</v>
+        <v>-0.59185103033212527</v>
       </c>
       <c r="Z105" s="5">
         <f>'Mortgage Performance'!Z30</f>
-        <v>6.11504166E-2</v>
+        <v>5.9474952300000002E-2</v>
       </c>
       <c r="AA105" s="5">
         <f>'Mortgage Performance'!AA30</f>
-        <v>1.0136403469999999</v>
+        <v>1.0061198879</v>
       </c>
       <c r="AB105" s="5">
         <f>'Mortgage Performance'!AB30</f>
-        <v>3.0599705416194651</v>
+        <v>3.0541587904924219</v>
       </c>
       <c r="AC105" s="5">
         <f>'Mortgage Performance'!AC30</f>
-        <v>21.591512009999999</v>
+        <v>21.589313560000001</v>
       </c>
       <c r="AD105" s="5">
         <f>'Mortgage Performance'!AD30</f>
-        <v>25.339716709999998</v>
+        <v>25.306820649999999</v>
       </c>
       <c r="AE105" s="5">
         <f>'Mortgage Performance'!AE30</f>
-        <v>0.11409498000000001</v>
+        <v>0.11411219</v>
       </c>
       <c r="AF105" s="5">
         <f>'Mortgage Performance'!AF30</f>
-        <v>0.32609893000000001</v>
+        <v>0.32520748999999999</v>
       </c>
       <c r="AG105" s="5">
         <f>'Mortgage Performance'!AG30</f>
-        <v>453.77062176611201</v>
+        <v>451.26878521170602</v>
       </c>
       <c r="AH105" s="5">
         <f>'Mortgage Performance'!AH30</f>
@@ -7714,15 +7714,15 @@
       </c>
       <c r="E106" s="5">
         <f>'Mortgage Performance'!E31</f>
-        <v>107.1561482744</v>
+        <v>106.96296062429998</v>
       </c>
       <c r="F106" s="5">
         <f>'Mortgage Performance'!F31</f>
-        <v>106.69245153455641</v>
+        <v>106.5000005886527</v>
       </c>
       <c r="G106" s="5">
         <f>'Mortgage Performance'!G31</f>
-        <v>748.98100977258605</v>
+        <v>747.63000413234192</v>
       </c>
       <c r="H106" s="5">
         <f>'Mortgage Performance'!H31</f>
@@ -7762,11 +7762,11 @@
       </c>
       <c r="Q106" s="5">
         <f>'Mortgage Performance'!Q31</f>
-        <v>3.04628963</v>
+        <v>3.0456438299999999</v>
       </c>
       <c r="R106" s="5">
         <f>'Mortgage Performance'!R31</f>
-        <v>0.32245539000000023</v>
+        <v>0.3219758199999998</v>
       </c>
       <c r="S106" s="5">
         <f>'Mortgage Performance'!S31</f>
@@ -7774,59 +7774,59 @@
       </c>
       <c r="T106" s="5">
         <f>'Mortgage Performance'!T31</f>
-        <v>0.62657147999999985</v>
+        <v>0.62649506999999993</v>
       </c>
       <c r="U106" s="5">
         <f>'Mortgage Performance'!U31</f>
-        <v>2.0972523700000001</v>
+        <v>2.0971625500000002</v>
       </c>
       <c r="V106" s="5">
         <f>'Mortgage Performance'!V31</f>
-        <v>2.2761950900000003</v>
+        <v>2.2757418899999999</v>
       </c>
       <c r="W106" s="5">
         <f>'Mortgage Performance'!W31</f>
-        <v>2.4482883603999999</v>
+        <v>2.4442177936</v>
       </c>
       <c r="X106" s="5">
         <f>'Mortgage Performance'!X31</f>
-        <v>0.82855666975120867</v>
+        <v>0.84644766746939892</v>
       </c>
       <c r="Y106" s="5">
         <f>'Mortgage Performance'!Y31</f>
-        <v>-0.11313849202483614</v>
+        <v>-0.1121889730417439</v>
       </c>
       <c r="Z106" s="5">
         <f>'Mortgage Performance'!Z31</f>
-        <v>3.4166891999999997E-2</v>
+        <v>3.3052886300000001E-2</v>
       </c>
       <c r="AA106" s="5">
         <f>'Mortgage Performance'!AA31</f>
-        <v>1.000268151</v>
+        <v>0.99489934949999992</v>
       </c>
       <c r="AB106" s="5">
         <f>'Mortgage Performance'!AB31</f>
-        <v>2.2702711553178512</v>
+        <v>2.2668247286294321</v>
       </c>
       <c r="AC106" s="5">
         <f>'Mortgage Performance'!AC31</f>
-        <v>24.999816670000001</v>
+        <v>24.999814409999999</v>
       </c>
       <c r="AD106" s="5">
         <f>'Mortgage Performance'!AD31</f>
-        <v>24.999663210000001</v>
+        <v>24.99966109</v>
       </c>
       <c r="AE106" s="5">
         <f>'Mortgage Performance'!AE31</f>
-        <v>0.77089319000000012</v>
+        <v>0.77082987000000003</v>
       </c>
       <c r="AF106" s="5">
         <f>'Mortgage Performance'!AF31</f>
-        <v>0.65197095999999999</v>
+        <v>0.65067312999999993</v>
       </c>
       <c r="AG106" s="5">
         <f>'Mortgage Performance'!AG31</f>
-        <v>10.5539468302232</v>
+        <v>10.5181056800461</v>
       </c>
       <c r="AH106" s="5">
         <f>'Mortgage Performance'!AH31</f>
@@ -7917,15 +7917,15 @@
       </c>
       <c r="E107" s="5">
         <f>'Mortgage Performance'!E34</f>
-        <v>104.2324675022</v>
+        <v>104.1384890954</v>
       </c>
       <c r="F107" s="5">
         <f>'Mortgage Performance'!F34</f>
-        <v>103.92656784119382</v>
+        <v>103.83276234284068</v>
       </c>
       <c r="G107" s="5">
         <f>'Mortgage Performance'!G34</f>
-        <v>8637.3370532816298</v>
+        <v>8629.5408783135008</v>
       </c>
       <c r="H107" s="5">
         <f>'Mortgage Performance'!H34</f>
@@ -7965,39 +7965,39 @@
       </c>
       <c r="Q107" s="5">
         <f>'Mortgage Performance'!Q34</f>
-        <v>2.0991235499999998</v>
+        <v>2.0994472599999998</v>
       </c>
       <c r="R107" s="5">
         <f>'Mortgage Performance'!R34</f>
-        <v>0.13190889999999991</v>
+        <v>0.13189656999999988</v>
       </c>
       <c r="S107" s="5">
         <f>'Mortgage Performance'!S34</f>
-        <v>-1.0899999999999999E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T107" s="5">
         <f>'Mortgage Performance'!T34</f>
-        <v>0.24553719999999998</v>
+        <v>0.24569706999999999</v>
       </c>
       <c r="U107" s="5">
         <f>'Mortgage Performance'!U34</f>
-        <v>1.7216785400000001</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="V107" s="5">
         <f>'Mortgage Performance'!V34</f>
-        <v>1.7371317899999998</v>
+        <v>1.7373184500000001</v>
       </c>
       <c r="W107" s="5">
         <f>'Mortgage Performance'!W34</f>
-        <v>1.5590782057000001</v>
+        <v>1.5581886845999999</v>
       </c>
       <c r="X107" s="5">
         <f>'Mortgage Performance'!X34</f>
-        <v>1.4916658903492586</v>
+        <v>1.4911198157486059</v>
       </c>
       <c r="Y107" s="5">
         <f>'Mortgage Performance'!Y34</f>
-        <v>-7.5010357800859531E-2</v>
+        <v>-7.5109368280194197E-2</v>
       </c>
       <c r="Z107" s="5">
         <f>'Mortgage Performance'!Z34</f>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="AA107" s="5">
         <f>'Mortgage Performance'!AA34</f>
-        <v>0.33162517530000002</v>
+        <v>0.3307384531</v>
       </c>
       <c r="AB107" s="5">
         <f>'Mortgage Performance'!AB34</f>
-        <v>1.4972757842971103</v>
+        <v>1.4967336931243069</v>
       </c>
       <c r="AC107" s="5">
         <f>'Mortgage Performance'!AC34</f>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="AG107" s="5">
         <f>'Mortgage Performance'!AG34</f>
-        <v>31.6103700669792</v>
+        <v>31.5925024392273</v>
       </c>
       <c r="AH107" s="5">
         <f>'Mortgage Performance'!AH34</f>
@@ -8120,15 +8120,15 @@
       </c>
       <c r="E108" s="5">
         <f>'Mortgage Performance'!E35</f>
-        <v>104.2324675022</v>
+        <v>104.1384890954</v>
       </c>
       <c r="F108" s="5">
         <f>'Mortgage Performance'!F35</f>
-        <v>103.92656784119409</v>
+        <v>103.83276234284077</v>
       </c>
       <c r="G108" s="5">
         <f>'Mortgage Performance'!G35</f>
-        <v>561.20346634244697</v>
+        <v>560.69691665133905</v>
       </c>
       <c r="H108" s="5">
         <f>'Mortgage Performance'!H35</f>
@@ -8168,39 +8168,39 @@
       </c>
       <c r="Q108" s="5">
         <f>'Mortgage Performance'!Q35</f>
-        <v>2.0991235499999998</v>
+        <v>2.0994472599999998</v>
       </c>
       <c r="R108" s="5">
         <f>'Mortgage Performance'!R35</f>
-        <v>0.13190889999999991</v>
+        <v>0.13189656999999988</v>
       </c>
       <c r="S108" s="5">
         <f>'Mortgage Performance'!S35</f>
-        <v>-1.0899999999999999E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T108" s="5">
         <f>'Mortgage Performance'!T35</f>
-        <v>0.24553719999999998</v>
+        <v>0.24569706999999999</v>
       </c>
       <c r="U108" s="5">
         <f>'Mortgage Performance'!U35</f>
-        <v>1.7216785400000001</v>
+        <v>1.7218547000000002</v>
       </c>
       <c r="V108" s="5">
         <f>'Mortgage Performance'!V35</f>
-        <v>1.7371317899999998</v>
+        <v>1.7373184500000001</v>
       </c>
       <c r="W108" s="5">
         <f>'Mortgage Performance'!W35</f>
-        <v>1.5590782057000001</v>
+        <v>1.5581886845999999</v>
       </c>
       <c r="X108" s="5">
         <f>'Mortgage Performance'!X35</f>
-        <v>1.4916658903496549</v>
+        <v>1.4911198157477936</v>
       </c>
       <c r="Y108" s="5">
         <f>'Mortgage Performance'!Y35</f>
-        <v>-7.5010357818811199E-2</v>
+        <v>-7.5109368288271847E-2</v>
       </c>
       <c r="Z108" s="5">
         <f>'Mortgage Performance'!Z35</f>
@@ -8208,11 +8208,11 @@
       </c>
       <c r="AA108" s="5">
         <f>'Mortgage Performance'!AA35</f>
-        <v>0.33162517530000002</v>
+        <v>0.3307384531</v>
       </c>
       <c r="AB108" s="5">
         <f>'Mortgage Performance'!AB35</f>
-        <v>1.4972757842968765</v>
+        <v>1.4967336931242698</v>
       </c>
       <c r="AC108" s="5">
         <f>'Mortgage Performance'!AC35</f>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="AG108" s="5">
         <f>'Mortgage Performance'!AG35</f>
-        <v>2.0538563152651999</v>
+        <v>2.0526953816849001</v>
       </c>
       <c r="AH108" s="5">
         <f>'Mortgage Performance'!AH35</f>
@@ -8323,15 +8323,15 @@
       </c>
       <c r="E109" s="5">
         <f>'Mortgage Performance'!E38</f>
-        <v>105.35909860949999</v>
+        <v>105.2500088668</v>
       </c>
       <c r="F109" s="5">
         <f>'Mortgage Performance'!F38</f>
-        <v>105.05215168113421</v>
+        <v>104.94326161267483</v>
       </c>
       <c r="G109" s="5">
         <f>'Mortgage Performance'!G38</f>
-        <v>2184.03423345078</v>
+        <v>2181.7704089275098</v>
       </c>
       <c r="H109" s="5">
         <f>'Mortgage Performance'!H38</f>
@@ -8371,39 +8371,39 @@
       </c>
       <c r="Q109" s="5">
         <f>'Mortgage Performance'!Q38</f>
-        <v>2.0955901099999998</v>
+        <v>2.0959585000000001</v>
       </c>
       <c r="R109" s="5">
         <f>'Mortgage Performance'!R38</f>
-        <v>0.13191197999999976</v>
+        <v>0.13189781999999992</v>
       </c>
       <c r="S109" s="5">
         <f>'Mortgage Performance'!S38</f>
-        <v>-1.0899999999999999E-6</v>
+        <v>-1.08E-6</v>
       </c>
       <c r="T109" s="5">
         <f>'Mortgage Performance'!T38</f>
-        <v>0.24385577999999999</v>
+        <v>0.24403776999999999</v>
       </c>
       <c r="U109" s="5">
         <f>'Mortgage Performance'!U38</f>
-        <v>1.7198234400000001</v>
+        <v>1.7200239900000001</v>
       </c>
       <c r="V109" s="5">
         <f>'Mortgage Performance'!V38</f>
-        <v>1.7351414599999999</v>
+        <v>1.7353542900000001</v>
       </c>
       <c r="W109" s="5">
         <f>'Mortgage Performance'!W38</f>
-        <v>1.5644608315999999</v>
+        <v>1.5634335582000001</v>
       </c>
       <c r="X109" s="5">
         <f>'Mortgage Performance'!X38</f>
-        <v>1.4918303551988084</v>
+        <v>1.4912032717408166</v>
       </c>
       <c r="Y109" s="5">
         <f>'Mortgage Performance'!Y38</f>
-        <v>-7.4982755028318332E-2</v>
+        <v>-7.5096453379067854E-2</v>
       </c>
       <c r="Z109" s="5">
         <f>'Mortgage Performance'!Z38</f>
@@ -8411,11 +8411,11 @@
       </c>
       <c r="AA109" s="5">
         <f>'Mortgage Performance'!AA38</f>
-        <v>0.33973872970000002</v>
+        <v>0.3387246927</v>
       </c>
       <c r="AB109" s="5">
         <f>'Mortgage Performance'!AB38</f>
-        <v>1.4974391632875654</v>
+        <v>1.4968166541594254</v>
       </c>
       <c r="AC109" s="5">
         <f>'Mortgage Performance'!AC38</f>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="AG109" s="5">
         <f>'Mortgage Performance'!AG38</f>
-        <v>7.9344181285464002</v>
+        <v>7.9292566543103007</v>
       </c>
       <c r="AH109" s="5">
         <f>'Mortgage Performance'!AH38</f>
@@ -8526,15 +8526,15 @@
       </c>
       <c r="E110" s="5">
         <f>'Mortgage Performance'!E41</f>
-        <v>117.366699549808</v>
+        <v>117.01478496676501</v>
       </c>
       <c r="F110" s="5">
         <f>'Mortgage Performance'!F41</f>
-        <v>116.78790926731781</v>
+        <v>116.43600380059979</v>
       </c>
       <c r="G110" s="5">
         <f>'Mortgage Performance'!G41</f>
-        <v>10006.388066023801</v>
+        <v>9976.2368056354007</v>
       </c>
       <c r="H110" s="5">
         <f>'Mortgage Performance'!H41</f>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="N110" s="5">
         <f>'Mortgage Performance'!N41</f>
-        <v>43.400410677618069</v>
+        <v>43.367556468172481</v>
       </c>
       <c r="O110" s="5">
         <f>'Mortgage Performance'!O41</f>
@@ -8574,51 +8574,51 @@
       </c>
       <c r="Q110" s="5">
         <f>'Mortgage Performance'!Q41</f>
-        <v>2.0342208497661649</v>
+        <v>2.0346510486883562</v>
       </c>
       <c r="R110" s="5">
         <f>'Mortgage Performance'!R41</f>
-        <v>0.22456520143790901</v>
+        <v>0.22463407474585848</v>
       </c>
       <c r="S110" s="5">
         <f>'Mortgage Performance'!S41</f>
-        <v>1.77089760909947E-5</v>
+        <v>1.7721452941656199E-5</v>
       </c>
       <c r="T110" s="5">
         <f>'Mortgage Performance'!T41</f>
-        <v>0.25635104277077503</v>
+        <v>0.25676485943643601</v>
       </c>
       <c r="U110" s="5">
         <f>'Mortgage Performance'!U41</f>
-        <v>1.55328689658139</v>
+        <v>1.5532343930531201</v>
       </c>
       <c r="V110" s="5">
         <f>'Mortgage Performance'!V41</f>
-        <v>1.5489040222886998</v>
+        <v>1.5489928637836499</v>
       </c>
       <c r="W110" s="5">
         <f>'Mortgage Performance'!W41</f>
-        <v>3.4710409454675406</v>
+        <v>3.4698543267522104</v>
       </c>
       <c r="X110" s="5">
         <f>'Mortgage Performance'!X41</f>
-        <v>3.0529985225632497</v>
+        <v>3.0556412959593695</v>
       </c>
       <c r="Y110" s="5">
         <f>'Mortgage Performance'!Y41</f>
-        <v>0.10237611572875799</v>
+        <v>0.10273252435381752</v>
       </c>
       <c r="Z110" s="5">
         <f>'Mortgage Performance'!Z41</f>
-        <v>1.04805015121758E-5</v>
+        <v>9.9093372475249701E-6</v>
       </c>
       <c r="AA110" s="5">
         <f>'Mortgage Performance'!AA41</f>
-        <v>0.76726963582894703</v>
+        <v>0.76318847767426401</v>
       </c>
       <c r="AB110" s="5">
         <f>'Mortgage Performance'!AB41</f>
-        <v>3.054010739172563</v>
+        <v>3.0566434794575144</v>
       </c>
       <c r="AC110" s="5">
         <f>'Mortgage Performance'!AC41</f>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="AD110" s="5">
         <f>'Mortgage Performance'!AD41</f>
-        <v>1.21732031633403</v>
+        <v>1.2173202609243701</v>
       </c>
       <c r="AE110" s="5">
         <f>'Mortgage Performance'!AE41</f>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="AG110" s="5">
         <f>'Mortgage Performance'!AG41</f>
-        <v>86.026378971487603</v>
+        <v>86.0250240000574</v>
       </c>
       <c r="AH110" s="5">
         <f>'Mortgage Performance'!AH41</f>
@@ -8729,15 +8729,15 @@
       </c>
       <c r="E111" s="5">
         <f>'Mortgage Performance'!E44</f>
-        <v>106.7876538922</v>
+        <v>106.63704614730001</v>
       </c>
       <c r="F111" s="5">
         <f>'Mortgage Performance'!F44</f>
-        <v>106.47017899419181</v>
+        <v>106.31988921025581</v>
       </c>
       <c r="G111" s="5">
         <f>'Mortgage Performance'!G44</f>
-        <v>5506.6376575796003</v>
+        <v>5498.8646699544306</v>
       </c>
       <c r="H111" s="5">
         <f>'Mortgage Performance'!H44</f>
@@ -8777,71 +8777,71 @@
       </c>
       <c r="Q111" s="5">
         <f>'Mortgage Performance'!Q44</f>
-        <v>2.9072399299999998</v>
+        <v>2.9086846400000002</v>
       </c>
       <c r="R111" s="5">
         <f>'Mortgage Performance'!R44</f>
-        <v>0.15325891000000011</v>
+        <v>0.15320475000000022</v>
       </c>
       <c r="S111" s="5">
         <f>'Mortgage Performance'!S44</f>
-        <v>-1.9029999999999999E-5</v>
+        <v>-1.8860000000000002E-5</v>
       </c>
       <c r="T111" s="5">
         <f>'Mortgage Performance'!T44</f>
-        <v>0.61084539999999998</v>
+        <v>0.61155354000000006</v>
       </c>
       <c r="U111" s="5">
         <f>'Mortgage Performance'!U44</f>
-        <v>2.14315465</v>
+        <v>2.14394521</v>
       </c>
       <c r="V111" s="5">
         <f>'Mortgage Performance'!V44</f>
-        <v>2.1779800200000001</v>
+        <v>2.1787610700000002</v>
       </c>
       <c r="W111" s="5">
         <f>'Mortgage Performance'!W44</f>
-        <v>1.6338807551999999</v>
+        <v>1.6322213529999998</v>
       </c>
       <c r="X111" s="5">
         <f>'Mortgage Performance'!X44</f>
-        <v>1.5402886371786371</v>
+        <v>1.5390142565464375</v>
       </c>
       <c r="Y111" s="5">
         <f>'Mortgage Performance'!Y44</f>
-        <v>-8.4979117949074298E-2</v>
+        <v>-8.5174422708358205E-2</v>
       </c>
       <c r="Z111" s="5">
         <f>'Mortgage Performance'!Z44</f>
-        <v>1.35765768E-2</v>
+        <v>1.32199932E-2</v>
       </c>
       <c r="AA111" s="5">
         <f>'Mortgage Performance'!AA44</f>
-        <v>0.56357124700000005</v>
+        <v>0.56192684940000004</v>
       </c>
       <c r="AB111" s="5">
         <f>'Mortgage Performance'!AB44</f>
-        <v>1.5466933465790638</v>
+        <v>1.5454260756757596</v>
       </c>
       <c r="AC111" s="5">
         <f>'Mortgage Performance'!AC44</f>
-        <v>17.999445099999999</v>
+        <v>17.999442860000002</v>
       </c>
       <c r="AD111" s="5">
         <f>'Mortgage Performance'!AD44</f>
-        <v>17.998653969999999</v>
+        <v>17.99865157</v>
       </c>
       <c r="AE111" s="5">
         <f>'Mortgage Performance'!AE44</f>
-        <v>0.62373409000000002</v>
+        <v>0.62373369999999995</v>
       </c>
       <c r="AF111" s="5">
         <f>'Mortgage Performance'!AF44</f>
-        <v>0.62371724000000006</v>
+        <v>0.62371706000000005</v>
       </c>
       <c r="AG111" s="5">
         <f>'Mortgage Performance'!AG44</f>
-        <v>51.655597857720906</v>
+        <v>51.603846848438401</v>
       </c>
       <c r="AH111" s="5">
         <f>'Mortgage Performance'!AH44</f>
@@ -8932,15 +8932,15 @@
       </c>
       <c r="E112" s="5">
         <f>'Mortgage Performance'!E45</f>
-        <v>102.5402961763</v>
+        <v>102.37639763180002</v>
       </c>
       <c r="F112" s="5">
         <f>'Mortgage Performance'!F45</f>
-        <v>102.19568366495145</v>
+        <v>102.03215982457098</v>
       </c>
       <c r="G112" s="5">
         <f>'Mortgage Performance'!G45</f>
-        <v>3577.87088510995</v>
+        <v>3572.1459154582299</v>
       </c>
       <c r="H112" s="5">
         <f>'Mortgage Performance'!H45</f>
@@ -8980,59 +8980,59 @@
       </c>
       <c r="Q112" s="5">
         <f>'Mortgage Performance'!Q45</f>
-        <v>5.7649322199999995</v>
+        <v>5.77005722</v>
       </c>
       <c r="R112" s="5">
         <f>'Mortgage Performance'!R45</f>
-        <v>0.15950529999999957</v>
+        <v>0.15944853000000012</v>
       </c>
       <c r="S112" s="5">
         <f>'Mortgage Performance'!S45</f>
-        <v>-4.0769999999999991E-5</v>
+        <v>-4.0399999999999999E-5</v>
       </c>
       <c r="T112" s="5">
         <f>'Mortgage Performance'!T45</f>
-        <v>1.8935836399999999</v>
+        <v>1.8960054899999998</v>
       </c>
       <c r="U112" s="5">
         <f>'Mortgage Performance'!U45</f>
-        <v>3.7118840500000001</v>
+        <v>3.7146435999999996</v>
       </c>
       <c r="V112" s="5">
         <f>'Mortgage Performance'!V45</f>
-        <v>3.74738112</v>
+        <v>3.7501480099999998</v>
       </c>
       <c r="W112" s="5">
         <f>'Mortgage Performance'!W45</f>
-        <v>1.8252888824</v>
+        <v>1.8232682134</v>
       </c>
       <c r="X112" s="5">
         <f>'Mortgage Performance'!X45</f>
-        <v>1.6773801197428511</v>
+        <v>1.6759779377509993</v>
       </c>
       <c r="Y112" s="5">
         <f>'Mortgage Performance'!Y45</f>
-        <v>-6.2594319021235814E-2</v>
+        <v>-6.2797545118705556E-2</v>
       </c>
       <c r="Z112" s="5">
         <f>'Mortgage Performance'!Z45</f>
-        <v>2.5812515999999999E-3</v>
+        <v>2.3542666E-3</v>
       </c>
       <c r="AA112" s="5">
         <f>'Mortgage Performance'!AA45</f>
-        <v>1.2957635007999999</v>
+        <v>1.2941587534999999</v>
       </c>
       <c r="AB112" s="5">
         <f>'Mortgage Performance'!AB45</f>
-        <v>1.6829456733554176</v>
+        <v>1.6815506426504971</v>
       </c>
       <c r="AC112" s="5">
         <f>'Mortgage Performance'!AC45</f>
-        <v>9.9995784000000008</v>
+        <v>9.9995767000000004</v>
       </c>
       <c r="AD112" s="5">
         <f>'Mortgage Performance'!AD45</f>
-        <v>9.9988898899999992</v>
+        <v>9.9988879599999994</v>
       </c>
       <c r="AE112" s="5">
         <f>'Mortgage Performance'!AE45</f>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="AG112" s="5">
         <f>'Mortgage Performance'!AG45</f>
-        <v>112.91144516275</v>
+        <v>112.78867427367</v>
       </c>
       <c r="AH112" s="5">
         <f>'Mortgage Performance'!AH45</f>
@@ -9135,15 +9135,15 @@
       </c>
       <c r="E113" s="5">
         <f>'Mortgage Performance'!E48</f>
-        <v>117.1868150856</v>
+        <v>116.81125361150001</v>
       </c>
       <c r="F113" s="5">
         <f>'Mortgage Performance'!F48</f>
-        <v>116.44333382533227</v>
+        <v>116.06778269230513</v>
       </c>
       <c r="G113" s="5">
         <f>'Mortgage Performance'!G48</f>
-        <v>1114.3627047084299</v>
+        <v>1110.7686803653601</v>
       </c>
       <c r="H113" s="5">
         <f>'Mortgage Performance'!H48</f>
@@ -9183,27 +9183,27 @@
       </c>
       <c r="Q113" s="5">
         <f>'Mortgage Performance'!Q48</f>
-        <v>2.3854172999999999</v>
+        <v>2.3869120399999999</v>
       </c>
       <c r="R113" s="5">
         <f>'Mortgage Performance'!R48</f>
-        <v>0.2509572100000001</v>
+        <v>0.25110778000000028</v>
       </c>
       <c r="S113" s="5">
         <f>'Mortgage Performance'!S48</f>
-        <v>2.228E-5</v>
+        <v>2.2310000000000002E-5</v>
       </c>
       <c r="T113" s="5">
         <f>'Mortgage Performance'!T48</f>
-        <v>0.32426546000000001</v>
+        <v>0.32490353</v>
       </c>
       <c r="U113" s="5">
         <f>'Mortgage Performance'!U48</f>
-        <v>1.81017235</v>
+        <v>1.8108784199999999</v>
       </c>
       <c r="V113" s="5">
         <f>'Mortgage Performance'!V48</f>
-        <v>1.8064302000000001</v>
+        <v>1.8072868700000002</v>
       </c>
       <c r="W113" s="5">
         <f>'Mortgage Performance'!W48</f>
@@ -9211,11 +9211,11 @@
       </c>
       <c r="X113" s="5">
         <f>'Mortgage Performance'!X48</f>
-        <v>3.4366818585309713</v>
+        <v>3.4407239106551923</v>
       </c>
       <c r="Y113" s="5">
         <f>'Mortgage Performance'!Y48</f>
-        <v>0.1237814192096264</v>
+        <v>0.12423421927420432</v>
       </c>
       <c r="Z113" s="5">
         <f>'Mortgage Performance'!Z48</f>
@@ -9223,11 +9223,11 @@
       </c>
       <c r="AA113" s="5">
         <f>'Mortgage Performance'!AA48</f>
-        <v>0.90549310780000003</v>
+        <v>0.90151935279999995</v>
       </c>
       <c r="AB113" s="5">
         <f>'Mortgage Performance'!AB48</f>
-        <v>3.4378055948823842</v>
+        <v>3.4418370780426137</v>
       </c>
       <c r="AC113" s="5">
         <f>'Mortgage Performance'!AC48</f>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="AG113" s="5">
         <f>'Mortgage Performance'!AG48</f>
-        <v>12.3427780168428</v>
+        <v>12.3426063427634</v>
       </c>
       <c r="AH113" s="5">
         <f>'Mortgage Performance'!AH48</f>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Loan_Portfolio_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9599261-77F2-42B0-9E55-EF9BA017CD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F002E-0E3C-45D6-A7A8-A8B2A7043DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Performance" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: December, 2020           Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 02/10/2021 4:46:11AM</t>
+    <t>Printed on: 03/14/2021 4:44:47AM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -1036,7 +1036,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-00B8-4EC8-92B1-8C574F8FDEC7}"/>
+                <c16:uniqueId val="{00000000-A59C-4402-B28E-6DBB4C4B8BEE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1050,7 +1050,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-00B8-4EC8-92B1-8C574F8FDEC7}"/>
+                <c16:uniqueId val="{00000001-A59C-4402-B28E-6DBB4C4B8BEE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1064,7 +1064,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-00B8-4EC8-92B1-8C574F8FDEC7}"/>
+                <c16:uniqueId val="{00000002-A59C-4402-B28E-6DBB4C4B8BEE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1078,7 +1078,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-00B8-4EC8-92B1-8C574F8FDEC7}"/>
+                <c16:uniqueId val="{00000003-A59C-4402-B28E-6DBB4C4B8BEE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1116,7 +1116,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-00B8-4EC8-92B1-8C574F8FDEC7}"/>
+                  <c16:uniqueId val="{00000002-A59C-4402-B28E-6DBB4C4B8BEE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1217,7 +1217,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-00B8-4EC8-92B1-8C574F8FDEC7}"/>
+              <c16:uniqueId val="{00000004-A59C-4402-B28E-6DBB4C4B8BEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1320,7 +1320,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-7ED6-427D-BE38-3930E9EC1464}"/>
+                <c16:uniqueId val="{00000000-E9C4-425B-B76A-08EA3E3D46DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1334,7 +1334,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7ED6-427D-BE38-3930E9EC1464}"/>
+                <c16:uniqueId val="{00000001-E9C4-425B-B76A-08EA3E3D46DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1348,7 +1348,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-7ED6-427D-BE38-3930E9EC1464}"/>
+                <c16:uniqueId val="{00000002-E9C4-425B-B76A-08EA3E3D46DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1362,7 +1362,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7ED6-427D-BE38-3930E9EC1464}"/>
+                <c16:uniqueId val="{00000003-E9C4-425B-B76A-08EA3E3D46DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1428,7 +1428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7ED6-427D-BE38-3930E9EC1464}"/>
+              <c16:uniqueId val="{00000004-E9C4-425B-B76A-08EA3E3D46DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2574,15 +2574,15 @@
       <c r="D10" s="61"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>1.622055850866664</v>
+        <v>1.6222340978902468</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>112.39913034404235</v>
+        <v>112.40067248157717</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>111.82042471444237</v>
+        <v>111.82195085979579</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2904,15 +2904,15 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!E101:E114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>110.05040096748084</v>
+        <v>110.05827546177993</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!F101:F114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>109.48378816198424</v>
+        <v>109.49161422871531</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G114)</f>
-        <v>109620.64289718679</v>
+        <v>109628.47874650123</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H114)</f>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="N17" s="17">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!N101:N114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>229.44769779936803</v>
+        <v>229.46152712183454</v>
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!O101:O114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
@@ -2946,71 +2946,71 @@
       </c>
       <c r="Q17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Q101:Q114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.4269549584090271</v>
+        <v>2.424816885840734</v>
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!R101:R114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.34425038889541304</v>
+        <v>0.34456223146758175</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!S101:S114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-5.3319743160426855E-2</v>
+        <v>-5.3314980309144298E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!T101:T114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.33112520513167737</v>
+        <v>0.33098684673180923</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!U101:U114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.804899107542363</v>
+        <v>1.8025827879504872</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!V101:V114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.9160119263859927</v>
+        <v>1.9140084259695991</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!W101:W114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.8916955169394507</v>
+        <v>2.8917534551602113</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!X101:X114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.159827881856395</v>
+        <v>2.1593486310229406</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-0.35375324946543407</v>
+        <v>-0.35396603158670709</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>3.6376659255518549E-2</v>
+        <v>3.6434909232639041E-2</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.85619776402478398</v>
+        <v>0.85637742887075741</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.6515505107432773</v>
+        <v>2.6518439356407737</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>14.402097971905016</v>
+        <v>14.40210280958172</v>
       </c>
       <c r="AD17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AD101:AD114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>16.65227243938017</v>
+        <v>16.652364343691783</v>
       </c>
       <c r="AE17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AE101:AE114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>0.27302065670172282</v>
+        <v>0.2729643479922097</v>
       </c>
       <c r="AF17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AF101:AF114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>0.39171328514496878</v>
+        <v>0.34997155272539321</v>
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG114)</f>
-        <v>880.18353152753957</v>
+        <v>879.84621151528404</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3093,13 +3093,13 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="23">
-        <v>108.83998563750001</v>
+        <v>108.8765240888</v>
       </c>
       <c r="F20" s="23">
-        <v>108.27252119499065</v>
+        <v>108.30895427567154</v>
       </c>
       <c r="G20" s="26">
-        <v>2890.8763159062501</v>
+        <v>2891.8490791604299</v>
       </c>
       <c r="H20" s="26">
         <v>2670</v>
@@ -3123,40 +3123,40 @@
         <v>75</v>
       </c>
       <c r="Q20" s="30">
-        <v>2.6361271099999999</v>
+        <v>2.62360127</v>
       </c>
       <c r="R20" s="30">
-        <v>0.16639642999999996</v>
+        <v>0.16639702999999989</v>
       </c>
       <c r="S20" s="30">
-        <v>5.5500000000000002E-6</v>
+        <v>5.5699999999999992E-6</v>
       </c>
       <c r="T20" s="30">
-        <v>0.47368157</v>
+        <v>0.47357123000000001</v>
       </c>
       <c r="U20" s="30">
-        <v>1.9960435599999999</v>
+        <v>1.98362744</v>
       </c>
       <c r="V20" s="30">
-        <v>1.99607315</v>
+        <v>1.9836576500000001</v>
       </c>
       <c r="W20" s="23">
-        <v>2.9502498757999995</v>
+        <v>2.9502498758</v>
       </c>
       <c r="X20" s="23">
-        <v>2.7085970481359984</v>
+        <v>2.708818582807671</v>
       </c>
       <c r="Y20" s="23">
-        <v>7.1591465831577702E-2</v>
+        <v>7.160906729158846E-2</v>
       </c>
       <c r="Z20" s="31">
         <v>0</v>
       </c>
       <c r="AA20" s="23">
-        <v>0.89691108680000009</v>
+        <v>0.89724461010000012</v>
       </c>
       <c r="AB20" s="23">
-        <v>2.7095796342031306</v>
+        <v>2.7098009641619476</v>
       </c>
       <c r="AC20" s="23">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG20" s="26">
-        <v>36.893196007916799</v>
+        <v>36.900046580988501</v>
       </c>
     </row>
     <row r="21" spans="1:33" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,13 +3182,13 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="23">
-        <v>108.83998563750001</v>
+        <v>108.8765240888</v>
       </c>
       <c r="F21" s="23">
-        <v>108.27252119499056</v>
+        <v>108.30895427567167</v>
       </c>
       <c r="G21" s="26">
-        <v>1948.90538150983</v>
+        <v>1949.56117696209</v>
       </c>
       <c r="H21" s="26">
         <v>1800</v>
@@ -3212,40 +3212,40 @@
         <v>75</v>
       </c>
       <c r="Q21" s="30">
-        <v>2.6361271099999999</v>
+        <v>2.62360127</v>
       </c>
       <c r="R21" s="30">
-        <v>0.16639642999999996</v>
+        <v>0.16639702999999989</v>
       </c>
       <c r="S21" s="30">
-        <v>5.5500000000000002E-6</v>
+        <v>5.57E-6</v>
       </c>
       <c r="T21" s="30">
-        <v>0.47368157</v>
+        <v>0.47357123000000001</v>
       </c>
       <c r="U21" s="30">
-        <v>1.9960435599999999</v>
+        <v>1.98362744</v>
       </c>
       <c r="V21" s="30">
-        <v>1.99607315</v>
+        <v>1.9836576500000001</v>
       </c>
       <c r="W21" s="23">
         <v>2.9502498758</v>
       </c>
       <c r="X21" s="23">
-        <v>2.7085970481365949</v>
+        <v>2.7088185828075528</v>
       </c>
       <c r="Y21" s="23">
-        <v>7.1591465867220302E-2</v>
+        <v>7.1609067286831515E-2</v>
       </c>
       <c r="Z21" s="31">
         <v>0</v>
       </c>
       <c r="AA21" s="23">
-        <v>0.89691108679999998</v>
+        <v>0.89724461010000001</v>
       </c>
       <c r="AB21" s="23">
-        <v>2.7095796342016354</v>
+        <v>2.7098009641596326</v>
       </c>
       <c r="AC21" s="23">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0.48339000000000004</v>
       </c>
       <c r="AG21" s="26">
-        <v>24.871817533427002</v>
+        <v>24.8764358972957</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3343,13 +3343,13 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23">
-        <v>104.1384890954</v>
+        <v>104.1415870548</v>
       </c>
       <c r="F24" s="23">
-        <v>103.83276234284072</v>
+        <v>103.83585397766886</v>
       </c>
       <c r="G24" s="26">
-        <v>6349.37341726471</v>
+        <v>6349.5624707344505</v>
       </c>
       <c r="H24" s="26">
         <v>6115</v>
@@ -3373,40 +3373,40 @@
         <v>75</v>
       </c>
       <c r="Q24" s="30">
-        <v>2.0994472599999998</v>
+        <v>2.0974512199999999</v>
       </c>
       <c r="R24" s="30">
-        <v>0.13189656999999988</v>
+        <v>0.13189688999999999</v>
       </c>
       <c r="S24" s="30">
         <v>-1.08E-6</v>
       </c>
       <c r="T24" s="30">
-        <v>0.24569706999999999</v>
+        <v>0.24569001000000001</v>
       </c>
       <c r="U24" s="30">
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="V24" s="30">
-        <v>1.7373184500000001</v>
+        <v>1.7353294700000002</v>
       </c>
       <c r="W24" s="23">
-        <v>1.5581886845999999</v>
+        <v>1.5581886846000002</v>
       </c>
       <c r="X24" s="23">
-        <v>1.4911198157485033</v>
+        <v>1.4911492420965131</v>
       </c>
       <c r="Y24" s="23">
-        <v>-7.5109368288263437E-2</v>
+        <v>-7.5107084432583834E-2</v>
       </c>
       <c r="Z24" s="31">
         <v>0</v>
       </c>
       <c r="AA24" s="23">
-        <v>0.3307384531</v>
+        <v>0.33076397260000001</v>
       </c>
       <c r="AB24" s="23">
-        <v>1.4967336931238684</v>
+        <v>1.4967630676702259</v>
       </c>
       <c r="AC24" s="23">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG24" s="26">
-        <v>23.2448745537089</v>
+        <v>23.245355420059401</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3579,7 +3579,7 @@
         <v>0.77082987000000003</v>
       </c>
       <c r="AF27" s="23">
-        <v>0.65067312999999993</v>
+        <v>0.63348300000000002</v>
       </c>
       <c r="AG27" s="26">
         <v>29.0521466005831</v>
@@ -3665,13 +3665,13 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="23">
-        <v>111.55729948859999</v>
+        <v>111.573766943</v>
       </c>
       <c r="F30" s="23">
-        <v>110.93025811258265</v>
+        <v>110.94662986142436</v>
       </c>
       <c r="G30" s="26">
-        <v>64118.798491653899</v>
+        <v>64128.261526201895</v>
       </c>
       <c r="H30" s="26">
         <v>57801</v>
@@ -3695,55 +3695,55 @@
         <v>75</v>
       </c>
       <c r="Q30" s="30">
-        <v>2.3076975699999998</v>
+        <v>2.3034198099999998</v>
       </c>
       <c r="R30" s="30">
-        <v>0.46408656999999937</v>
+        <v>0.46460196000000004</v>
       </c>
       <c r="S30" s="30">
-        <v>-9.11579E-2</v>
+        <v>-9.1142849999999997E-2</v>
       </c>
       <c r="T30" s="30">
-        <v>0.23136666</v>
+        <v>0.23113792999999999</v>
       </c>
       <c r="U30" s="30">
-        <v>1.7034022400000004</v>
+        <v>1.69882277</v>
       </c>
       <c r="V30" s="30">
-        <v>1.8769841299999996</v>
+        <v>1.8729281199999999</v>
       </c>
       <c r="W30" s="23">
-        <v>3.3341832447000002</v>
+        <v>3.3342560746999998</v>
       </c>
       <c r="X30" s="23">
-        <v>2.2784538772801217</v>
+        <v>2.2776869244384881</v>
       </c>
       <c r="Y30" s="23">
-        <v>-0.59185103033212527</v>
+        <v>-0.59216440985914576</v>
       </c>
       <c r="Z30" s="31">
-        <v>5.9474952300000002E-2</v>
+        <v>5.9571526700000002E-2</v>
       </c>
       <c r="AA30" s="23">
-        <v>1.0061198879</v>
+        <v>1.0064633749</v>
       </c>
       <c r="AB30" s="23">
-        <v>3.0541587904924219</v>
+        <v>3.0546583790169382</v>
       </c>
       <c r="AC30" s="23">
-        <v>21.589313560000001</v>
+        <v>21.589321940000001</v>
       </c>
       <c r="AD30" s="23">
-        <v>25.306820649999999</v>
+        <v>25.306979850000001</v>
       </c>
       <c r="AE30" s="23">
-        <v>0.11411219</v>
+        <v>0.11401465000000001</v>
       </c>
       <c r="AF30" s="23">
-        <v>0.32520748999999999</v>
+        <v>0.25368638999999998</v>
       </c>
       <c r="AG30" s="26">
-        <v>451.26878521170602</v>
+        <v>450.96364448490198</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,7 +3829,7 @@
         <v>0.77082987000000003</v>
       </c>
       <c r="AF31" s="23">
-        <v>0.65067312999999993</v>
+        <v>0.63348300000000002</v>
       </c>
       <c r="AG31" s="26">
         <v>10.5181056800461</v>
@@ -3915,13 +3915,13 @@
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="23">
-        <v>104.1384890954</v>
+        <v>104.1415870548</v>
       </c>
       <c r="F34" s="23">
-        <v>103.83276234284068</v>
+        <v>103.83585397766885</v>
       </c>
       <c r="G34" s="26">
-        <v>8629.5408783135008</v>
+        <v>8629.7978240840694</v>
       </c>
       <c r="H34" s="26">
         <v>8311.0000000000109</v>
@@ -3945,40 +3945,40 @@
         <v>75</v>
       </c>
       <c r="Q34" s="30">
-        <v>2.0994472599999998</v>
+        <v>2.0974512199999999</v>
       </c>
       <c r="R34" s="30">
-        <v>0.13189656999999988</v>
+        <v>0.13189688999999999</v>
       </c>
       <c r="S34" s="30">
         <v>-1.08E-6</v>
       </c>
       <c r="T34" s="30">
-        <v>0.24569706999999999</v>
+        <v>0.24569001000000001</v>
       </c>
       <c r="U34" s="30">
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="V34" s="30">
-        <v>1.7373184500000001</v>
+        <v>1.7353294700000002</v>
       </c>
       <c r="W34" s="23">
         <v>1.5581886845999999</v>
       </c>
       <c r="X34" s="23">
-        <v>1.4911198157486059</v>
+        <v>1.4911492420959676</v>
       </c>
       <c r="Y34" s="23">
-        <v>-7.5109368280194197E-2</v>
+        <v>-7.5107084440931351E-2</v>
       </c>
       <c r="Z34" s="31">
         <v>0</v>
       </c>
       <c r="AA34" s="23">
-        <v>0.3307384531</v>
+        <v>0.33076397260000001</v>
       </c>
       <c r="AB34" s="23">
-        <v>1.4967336931243069</v>
+        <v>1.4967630676702746</v>
       </c>
       <c r="AC34" s="23">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG34" s="26">
-        <v>31.5925024392273</v>
+        <v>31.593155992823203</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,13 +4004,13 @@
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="23">
-        <v>104.1384890954</v>
+        <v>104.1415870548</v>
       </c>
       <c r="F35" s="23">
-        <v>103.83276234284077</v>
+        <v>103.8358539776689</v>
       </c>
       <c r="G35" s="26">
-        <v>560.69691665133905</v>
+        <v>560.71361147941104</v>
       </c>
       <c r="H35" s="26">
         <v>539.99999999999898</v>
@@ -4034,40 +4034,40 @@
         <v>75</v>
       </c>
       <c r="Q35" s="30">
-        <v>2.0994472599999998</v>
+        <v>2.0974512199999999</v>
       </c>
       <c r="R35" s="30">
-        <v>0.13189656999999988</v>
+        <v>0.13189688999999999</v>
       </c>
       <c r="S35" s="30">
         <v>-1.08E-6</v>
       </c>
       <c r="T35" s="30">
-        <v>0.24569706999999999</v>
+        <v>0.24569001000000001</v>
       </c>
       <c r="U35" s="30">
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="V35" s="30">
-        <v>1.7373184500000001</v>
+        <v>1.7353294700000002</v>
       </c>
       <c r="W35" s="23">
         <v>1.5581886845999999</v>
       </c>
       <c r="X35" s="23">
-        <v>1.4911198157477936</v>
+        <v>1.4911492420969357</v>
       </c>
       <c r="Y35" s="23">
-        <v>-7.5109368288271847E-2</v>
+        <v>-7.5107084433497409E-2</v>
       </c>
       <c r="Z35" s="31">
         <v>0</v>
       </c>
       <c r="AA35" s="23">
-        <v>0.3307384531</v>
+        <v>0.33076397260000001</v>
       </c>
       <c r="AB35" s="23">
-        <v>1.4967336931242698</v>
+        <v>1.4967630676703649</v>
       </c>
       <c r="AC35" s="23">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG35" s="26">
-        <v>2.0526953816849001</v>
+        <v>2.0527378457615999</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4165,13 +4165,13 @@
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="23">
-        <v>105.2500088668</v>
+        <v>105.25311531289999</v>
       </c>
       <c r="F38" s="23">
-        <v>104.94326161267483</v>
+        <v>104.94636175260847</v>
       </c>
       <c r="G38" s="26">
-        <v>2181.7704089275098</v>
+        <v>2181.8348608367301</v>
       </c>
       <c r="H38" s="26">
         <v>2079</v>
@@ -4195,40 +4195,40 @@
         <v>75</v>
       </c>
       <c r="Q38" s="30">
-        <v>2.0959585000000001</v>
+        <v>2.0939783200000002</v>
       </c>
       <c r="R38" s="30">
-        <v>0.13189781999999992</v>
+        <v>0.13189814000000002</v>
       </c>
       <c r="S38" s="30">
         <v>-1.08E-6</v>
       </c>
       <c r="T38" s="30">
-        <v>0.24403776999999999</v>
+        <v>0.24403082000000001</v>
       </c>
       <c r="U38" s="30">
-        <v>1.7200239900000001</v>
+        <v>1.7180504400000001</v>
       </c>
       <c r="V38" s="30">
-        <v>1.7353542900000001</v>
+        <v>1.7333810500000002</v>
       </c>
       <c r="W38" s="23">
         <v>1.5634335582000001</v>
       </c>
       <c r="X38" s="23">
-        <v>1.4912032717408166</v>
+        <v>1.4912324662358987</v>
       </c>
       <c r="Y38" s="23">
-        <v>-7.5096453379067854E-2</v>
+        <v>-7.5094187483297922E-2</v>
       </c>
       <c r="Z38" s="31">
         <v>0</v>
       </c>
       <c r="AA38" s="23">
-        <v>0.3387246927</v>
+        <v>0.33874989970000002</v>
       </c>
       <c r="AB38" s="23">
-        <v>1.4968166541594254</v>
+        <v>1.4968457972582918</v>
       </c>
       <c r="AC38" s="23">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>0.24726000000000001</v>
       </c>
       <c r="AG38" s="26">
-        <v>7.9292566543103007</v>
+        <v>7.9294196647074005</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4326,13 +4326,13 @@
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="23">
-        <v>117.01478496676501</v>
+        <v>116.98572076821</v>
       </c>
       <c r="F41" s="23">
-        <v>116.43600380059979</v>
+        <v>116.40704329872888</v>
       </c>
       <c r="G41" s="26">
-        <v>9976.2368056354007</v>
+        <v>9973.7554698351014</v>
       </c>
       <c r="H41" s="26">
         <v>8568.0000000000091</v>
@@ -4356,40 +4356,40 @@
         <v>75</v>
       </c>
       <c r="Q41" s="30">
-        <v>2.0346510486883562</v>
+        <v>2.0419716546706788</v>
       </c>
       <c r="R41" s="30">
-        <v>0.22463407474585848</v>
+        <v>0.22462609123771954</v>
       </c>
       <c r="S41" s="30">
-        <v>1.7721452941656199E-5</v>
+        <v>1.7809329200517102E-5</v>
       </c>
       <c r="T41" s="30">
-        <v>0.25676485943643601</v>
+        <v>0.25680270537226901</v>
       </c>
       <c r="U41" s="30">
-        <v>1.5532343930531201</v>
+        <v>1.5605250487314897</v>
       </c>
       <c r="V41" s="30">
-        <v>1.5489928637836499</v>
+        <v>1.5562820576527598</v>
       </c>
       <c r="W41" s="23">
-        <v>3.4698543267522104</v>
+        <v>3.4697492751020902</v>
       </c>
       <c r="X41" s="23">
-        <v>3.0556412959593695</v>
+        <v>3.0553491771233015</v>
       </c>
       <c r="Y41" s="23">
-        <v>0.10273252435381752</v>
+        <v>0.10270924500509918</v>
       </c>
       <c r="Z41" s="31">
-        <v>9.9093372475249701E-6</v>
+        <v>9.9118025569406607E-6</v>
       </c>
       <c r="AA41" s="23">
-        <v>0.76318847767426401</v>
+        <v>0.76279785733468897</v>
       </c>
       <c r="AB41" s="23">
-        <v>3.0566434794575144</v>
+        <v>3.0563515158141641</v>
       </c>
       <c r="AC41" s="23">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0.26791197478991602</v>
       </c>
       <c r="AG41" s="26">
-        <v>86.0250240000574</v>
+        <v>86.009611426150997</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4487,13 +4487,13 @@
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="23">
-        <v>106.63704614730001</v>
+        <v>106.64338391569999</v>
       </c>
       <c r="F44" s="23">
-        <v>106.31988921025581</v>
+        <v>106.32621237223124</v>
       </c>
       <c r="G44" s="26">
-        <v>5498.8646699544306</v>
+        <v>5499.1917038918</v>
       </c>
       <c r="H44" s="26">
         <v>5172</v>
@@ -4517,40 +4517,40 @@
         <v>75</v>
       </c>
       <c r="Q44" s="30">
-        <v>2.9086846400000002</v>
+        <v>2.90480078</v>
       </c>
       <c r="R44" s="30">
-        <v>0.15320475000000022</v>
+        <v>0.15320652000000012</v>
       </c>
       <c r="S44" s="30">
-        <v>-1.8860000000000002E-5</v>
+        <v>-1.8870000000000001E-5</v>
       </c>
       <c r="T44" s="30">
-        <v>0.61155354000000006</v>
+        <v>0.61151603999999993</v>
       </c>
       <c r="U44" s="30">
-        <v>2.14394521</v>
+        <v>2.1400970899999998</v>
       </c>
       <c r="V44" s="30">
-        <v>2.1787610700000002</v>
+        <v>2.1749147099999999</v>
       </c>
       <c r="W44" s="23">
-        <v>1.6322213529999998</v>
+        <v>1.632221353</v>
       </c>
       <c r="X44" s="23">
-        <v>1.5390142565464375</v>
+        <v>1.5390881915364503</v>
       </c>
       <c r="Y44" s="23">
-        <v>-8.5174422708358205E-2</v>
+        <v>-8.5168333951021344E-2</v>
       </c>
       <c r="Z44" s="31">
-        <v>1.32199932E-2</v>
+        <v>1.32330269E-2</v>
       </c>
       <c r="AA44" s="23">
-        <v>0.56192684940000004</v>
+        <v>0.56198638670000001</v>
       </c>
       <c r="AB44" s="23">
-        <v>1.5454260756757596</v>
+        <v>1.5454998797378086</v>
       </c>
       <c r="AC44" s="23">
         <v>17.999442860000002</v>
@@ -4562,10 +4562,10 @@
         <v>0.62373369999999995</v>
       </c>
       <c r="AF44" s="23">
-        <v>0.62371706000000005</v>
+        <v>0.62371692000000001</v>
       </c>
       <c r="AG44" s="26">
-        <v>51.603846848438401</v>
+        <v>51.606223380627199</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4576,13 +4576,13 @@
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="23">
-        <v>102.37639763180002</v>
+        <v>102.3400692025</v>
       </c>
       <c r="F45" s="23">
-        <v>102.03215982457098</v>
+        <v>101.99592192878434</v>
       </c>
       <c r="G45" s="26">
-        <v>3572.1459154582299</v>
+        <v>3570.87722672674</v>
       </c>
       <c r="H45" s="26">
         <v>3501</v>
@@ -4606,40 +4606,40 @@
         <v>75</v>
       </c>
       <c r="Q45" s="30">
-        <v>5.77005722</v>
+        <v>5.7918398900000003</v>
       </c>
       <c r="R45" s="30">
-        <v>0.15944853000000012</v>
+        <v>0.15943865000000021</v>
       </c>
       <c r="S45" s="30">
-        <v>-4.0399999999999999E-5</v>
+        <v>-4.0179999999999998E-5</v>
       </c>
       <c r="T45" s="30">
-        <v>1.8960054899999998</v>
+        <v>1.8966702500000006</v>
       </c>
       <c r="U45" s="30">
-        <v>3.7146435999999996</v>
+        <v>3.7357711699999996</v>
       </c>
       <c r="V45" s="30">
-        <v>3.7501480099999998</v>
+        <v>3.7712659199999998</v>
       </c>
       <c r="W45" s="23">
         <v>1.8232682134</v>
       </c>
       <c r="X45" s="23">
-        <v>1.6759779377509993</v>
+        <v>1.6755466270298918</v>
       </c>
       <c r="Y45" s="23">
-        <v>-6.2797545118705556E-2</v>
+        <v>-6.2834212702264039E-2</v>
       </c>
       <c r="Z45" s="31">
-        <v>2.3542666E-3</v>
+        <v>2.3099988E-3</v>
       </c>
       <c r="AA45" s="23">
-        <v>1.2941587534999999</v>
+        <v>1.2938544175</v>
       </c>
       <c r="AB45" s="23">
-        <v>1.6815506426504971</v>
+        <v>1.6811201194104357</v>
       </c>
       <c r="AC45" s="23">
         <v>9.9995767000000004</v>
@@ -4654,7 +4654,7 @@
         <v>1.8504750000000001</v>
       </c>
       <c r="AG45" s="26">
-        <v>112.78867427367</v>
+        <v>112.75901118509501</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4737,13 +4737,13 @@
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="23">
-        <v>116.81125361150001</v>
+        <v>116.773508697</v>
       </c>
       <c r="F48" s="23">
-        <v>116.06778269230513</v>
+        <v>116.03017565749217</v>
       </c>
       <c r="G48" s="26">
-        <v>1110.7686803653601</v>
+        <v>1110.4087810422</v>
       </c>
       <c r="H48" s="26">
         <v>957</v>
@@ -4767,40 +4767,40 @@
         <v>75</v>
       </c>
       <c r="Q48" s="30">
-        <v>2.3869120399999999</v>
+        <v>2.3963960000000002</v>
       </c>
       <c r="R48" s="30">
-        <v>0.25110778000000028</v>
+        <v>0.25110564000000002</v>
       </c>
       <c r="S48" s="30">
-        <v>2.2310000000000002E-5</v>
+        <v>2.243E-5</v>
       </c>
       <c r="T48" s="30">
-        <v>0.32490353</v>
+        <v>0.32497375000000001</v>
       </c>
       <c r="U48" s="30">
-        <v>1.8108784199999999</v>
+        <v>1.8202941800000001</v>
       </c>
       <c r="V48" s="30">
-        <v>1.8072868700000002</v>
+        <v>1.81670061</v>
       </c>
       <c r="W48" s="23">
-        <v>3.8921105444999999</v>
+        <v>3.8921105444999995</v>
       </c>
       <c r="X48" s="23">
-        <v>3.4407239106551923</v>
+        <v>3.440459683927704</v>
       </c>
       <c r="Y48" s="23">
-        <v>0.12423421927420432</v>
+        <v>0.12420994849474094</v>
       </c>
       <c r="Z48" s="31">
         <v>0</v>
       </c>
       <c r="AA48" s="23">
-        <v>0.90151935279999995</v>
+        <v>0.90105736859999996</v>
       </c>
       <c r="AB48" s="23">
-        <v>3.4418370780426137</v>
+        <v>3.4415731038601671</v>
       </c>
       <c r="AC48" s="23">
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>0.34420000000000001</v>
       </c>
       <c r="AG48" s="26">
-        <v>12.3426063427634</v>
+        <v>12.340317356243901</v>
       </c>
     </row>
     <row r="49" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6699,15 +6699,15 @@
       </c>
       <c r="E101" s="5">
         <f>'Mortgage Performance'!E20</f>
-        <v>108.83998563750001</v>
+        <v>108.8765240888</v>
       </c>
       <c r="F101" s="5">
         <f>'Mortgage Performance'!F20</f>
-        <v>108.27252119499065</v>
+        <v>108.30895427567154</v>
       </c>
       <c r="G101" s="5">
         <f>'Mortgage Performance'!G20</f>
-        <v>2890.8763159062501</v>
+        <v>2891.8490791604299</v>
       </c>
       <c r="H101" s="5">
         <f>'Mortgage Performance'!H20</f>
@@ -6747,39 +6747,39 @@
       </c>
       <c r="Q101" s="5">
         <f>'Mortgage Performance'!Q20</f>
-        <v>2.6361271099999999</v>
+        <v>2.62360127</v>
       </c>
       <c r="R101" s="5">
         <f>'Mortgage Performance'!R20</f>
-        <v>0.16639642999999996</v>
+        <v>0.16639702999999989</v>
       </c>
       <c r="S101" s="5">
         <f>'Mortgage Performance'!S20</f>
-        <v>5.5500000000000002E-6</v>
+        <v>5.5699999999999992E-6</v>
       </c>
       <c r="T101" s="5">
         <f>'Mortgage Performance'!T20</f>
-        <v>0.47368157</v>
+        <v>0.47357123000000001</v>
       </c>
       <c r="U101" s="5">
         <f>'Mortgage Performance'!U20</f>
-        <v>1.9960435599999999</v>
+        <v>1.98362744</v>
       </c>
       <c r="V101" s="5">
         <f>'Mortgage Performance'!V20</f>
-        <v>1.99607315</v>
+        <v>1.9836576500000001</v>
       </c>
       <c r="W101" s="5">
         <f>'Mortgage Performance'!W20</f>
-        <v>2.9502498757999995</v>
+        <v>2.9502498758</v>
       </c>
       <c r="X101" s="5">
         <f>'Mortgage Performance'!X20</f>
-        <v>2.7085970481359984</v>
+        <v>2.708818582807671</v>
       </c>
       <c r="Y101" s="5">
         <f>'Mortgage Performance'!Y20</f>
-        <v>7.1591465831577702E-2</v>
+        <v>7.160906729158846E-2</v>
       </c>
       <c r="Z101" s="5">
         <f>'Mortgage Performance'!Z20</f>
@@ -6787,11 +6787,11 @@
       </c>
       <c r="AA101" s="5">
         <f>'Mortgage Performance'!AA20</f>
-        <v>0.89691108680000009</v>
+        <v>0.89724461010000012</v>
       </c>
       <c r="AB101" s="5">
         <f>'Mortgage Performance'!AB20</f>
-        <v>2.7095796342031306</v>
+        <v>2.7098009641619476</v>
       </c>
       <c r="AC101" s="5">
         <f>'Mortgage Performance'!AC20</f>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="AG101" s="5">
         <f>'Mortgage Performance'!AG20</f>
-        <v>36.893196007916799</v>
+        <v>36.900046580988501</v>
       </c>
       <c r="AH101" s="5">
         <f>'Mortgage Performance'!AH20</f>
@@ -6902,15 +6902,15 @@
       </c>
       <c r="E102" s="5">
         <f>'Mortgage Performance'!E21</f>
-        <v>108.83998563750001</v>
+        <v>108.8765240888</v>
       </c>
       <c r="F102" s="5">
         <f>'Mortgage Performance'!F21</f>
-        <v>108.27252119499056</v>
+        <v>108.30895427567167</v>
       </c>
       <c r="G102" s="5">
         <f>'Mortgage Performance'!G21</f>
-        <v>1948.90538150983</v>
+        <v>1949.56117696209</v>
       </c>
       <c r="H102" s="5">
         <f>'Mortgage Performance'!H21</f>
@@ -6950,27 +6950,27 @@
       </c>
       <c r="Q102" s="5">
         <f>'Mortgage Performance'!Q21</f>
-        <v>2.6361271099999999</v>
+        <v>2.62360127</v>
       </c>
       <c r="R102" s="5">
         <f>'Mortgage Performance'!R21</f>
-        <v>0.16639642999999996</v>
+        <v>0.16639702999999989</v>
       </c>
       <c r="S102" s="5">
         <f>'Mortgage Performance'!S21</f>
-        <v>5.5500000000000002E-6</v>
+        <v>5.57E-6</v>
       </c>
       <c r="T102" s="5">
         <f>'Mortgage Performance'!T21</f>
-        <v>0.47368157</v>
+        <v>0.47357123000000001</v>
       </c>
       <c r="U102" s="5">
         <f>'Mortgage Performance'!U21</f>
-        <v>1.9960435599999999</v>
+        <v>1.98362744</v>
       </c>
       <c r="V102" s="5">
         <f>'Mortgage Performance'!V21</f>
-        <v>1.99607315</v>
+        <v>1.9836576500000001</v>
       </c>
       <c r="W102" s="5">
         <f>'Mortgage Performance'!W21</f>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="X102" s="5">
         <f>'Mortgage Performance'!X21</f>
-        <v>2.7085970481365949</v>
+        <v>2.7088185828075528</v>
       </c>
       <c r="Y102" s="5">
         <f>'Mortgage Performance'!Y21</f>
-        <v>7.1591465867220302E-2</v>
+        <v>7.1609067286831515E-2</v>
       </c>
       <c r="Z102" s="5">
         <f>'Mortgage Performance'!Z21</f>
@@ -6990,11 +6990,11 @@
       </c>
       <c r="AA102" s="5">
         <f>'Mortgage Performance'!AA21</f>
-        <v>0.89691108679999998</v>
+        <v>0.89724461010000001</v>
       </c>
       <c r="AB102" s="5">
         <f>'Mortgage Performance'!AB21</f>
-        <v>2.7095796342016354</v>
+        <v>2.7098009641596326</v>
       </c>
       <c r="AC102" s="5">
         <f>'Mortgage Performance'!AC21</f>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="AG102" s="5">
         <f>'Mortgage Performance'!AG21</f>
-        <v>24.871817533427002</v>
+        <v>24.8764358972957</v>
       </c>
       <c r="AH102" s="5">
         <f>'Mortgage Performance'!AH21</f>
@@ -7105,15 +7105,15 @@
       </c>
       <c r="E103" s="5">
         <f>'Mortgage Performance'!E24</f>
-        <v>104.1384890954</v>
+        <v>104.1415870548</v>
       </c>
       <c r="F103" s="5">
         <f>'Mortgage Performance'!F24</f>
-        <v>103.83276234284072</v>
+        <v>103.83585397766886</v>
       </c>
       <c r="G103" s="5">
         <f>'Mortgage Performance'!G24</f>
-        <v>6349.37341726471</v>
+        <v>6349.5624707344505</v>
       </c>
       <c r="H103" s="5">
         <f>'Mortgage Performance'!H24</f>
@@ -7153,11 +7153,11 @@
       </c>
       <c r="Q103" s="5">
         <f>'Mortgage Performance'!Q24</f>
-        <v>2.0994472599999998</v>
+        <v>2.0974512199999999</v>
       </c>
       <c r="R103" s="5">
         <f>'Mortgage Performance'!R24</f>
-        <v>0.13189656999999988</v>
+        <v>0.13189688999999999</v>
       </c>
       <c r="S103" s="5">
         <f>'Mortgage Performance'!S24</f>
@@ -7165,27 +7165,27 @@
       </c>
       <c r="T103" s="5">
         <f>'Mortgage Performance'!T24</f>
-        <v>0.24569706999999999</v>
+        <v>0.24569001000000001</v>
       </c>
       <c r="U103" s="5">
         <f>'Mortgage Performance'!U24</f>
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="V103" s="5">
         <f>'Mortgage Performance'!V24</f>
-        <v>1.7373184500000001</v>
+        <v>1.7353294700000002</v>
       </c>
       <c r="W103" s="5">
         <f>'Mortgage Performance'!W24</f>
-        <v>1.5581886845999999</v>
+        <v>1.5581886846000002</v>
       </c>
       <c r="X103" s="5">
         <f>'Mortgage Performance'!X24</f>
-        <v>1.4911198157485033</v>
+        <v>1.4911492420965131</v>
       </c>
       <c r="Y103" s="5">
         <f>'Mortgage Performance'!Y24</f>
-        <v>-7.5109368288263437E-2</v>
+        <v>-7.5107084432583834E-2</v>
       </c>
       <c r="Z103" s="5">
         <f>'Mortgage Performance'!Z24</f>
@@ -7193,11 +7193,11 @@
       </c>
       <c r="AA103" s="5">
         <f>'Mortgage Performance'!AA24</f>
-        <v>0.3307384531</v>
+        <v>0.33076397260000001</v>
       </c>
       <c r="AB103" s="5">
         <f>'Mortgage Performance'!AB24</f>
-        <v>1.4967336931238684</v>
+        <v>1.4967630676702259</v>
       </c>
       <c r="AC103" s="5">
         <f>'Mortgage Performance'!AC24</f>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="AG103" s="5">
         <f>'Mortgage Performance'!AG24</f>
-        <v>23.2448745537089</v>
+        <v>23.245355420059401</v>
       </c>
       <c r="AH103" s="5">
         <f>'Mortgage Performance'!AH24</f>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="AF104" s="5">
         <f>'Mortgage Performance'!AF27</f>
-        <v>0.65067312999999993</v>
+        <v>0.63348300000000002</v>
       </c>
       <c r="AG104" s="5">
         <f>'Mortgage Performance'!AG27</f>
@@ -7511,15 +7511,15 @@
       </c>
       <c r="E105" s="5">
         <f>'Mortgage Performance'!E30</f>
-        <v>111.55729948859999</v>
+        <v>111.573766943</v>
       </c>
       <c r="F105" s="5">
         <f>'Mortgage Performance'!F30</f>
-        <v>110.93025811258265</v>
+        <v>110.94662986142436</v>
       </c>
       <c r="G105" s="5">
         <f>'Mortgage Performance'!G30</f>
-        <v>64118.798491653899</v>
+        <v>64128.261526201895</v>
       </c>
       <c r="H105" s="5">
         <f>'Mortgage Performance'!H30</f>
@@ -7559,71 +7559,71 @@
       </c>
       <c r="Q105" s="5">
         <f>'Mortgage Performance'!Q30</f>
-        <v>2.3076975699999998</v>
+        <v>2.3034198099999998</v>
       </c>
       <c r="R105" s="5">
         <f>'Mortgage Performance'!R30</f>
-        <v>0.46408656999999937</v>
+        <v>0.46460196000000004</v>
       </c>
       <c r="S105" s="5">
         <f>'Mortgage Performance'!S30</f>
-        <v>-9.11579E-2</v>
+        <v>-9.1142849999999997E-2</v>
       </c>
       <c r="T105" s="5">
         <f>'Mortgage Performance'!T30</f>
-        <v>0.23136666</v>
+        <v>0.23113792999999999</v>
       </c>
       <c r="U105" s="5">
         <f>'Mortgage Performance'!U30</f>
-        <v>1.7034022400000004</v>
+        <v>1.69882277</v>
       </c>
       <c r="V105" s="5">
         <f>'Mortgage Performance'!V30</f>
-        <v>1.8769841299999996</v>
+        <v>1.8729281199999999</v>
       </c>
       <c r="W105" s="5">
         <f>'Mortgage Performance'!W30</f>
-        <v>3.3341832447000002</v>
+        <v>3.3342560746999998</v>
       </c>
       <c r="X105" s="5">
         <f>'Mortgage Performance'!X30</f>
-        <v>2.2784538772801217</v>
+        <v>2.2776869244384881</v>
       </c>
       <c r="Y105" s="5">
         <f>'Mortgage Performance'!Y30</f>
-        <v>-0.59185103033212527</v>
+        <v>-0.59216440985914576</v>
       </c>
       <c r="Z105" s="5">
         <f>'Mortgage Performance'!Z30</f>
-        <v>5.9474952300000002E-2</v>
+        <v>5.9571526700000002E-2</v>
       </c>
       <c r="AA105" s="5">
         <f>'Mortgage Performance'!AA30</f>
-        <v>1.0061198879</v>
+        <v>1.0064633749</v>
       </c>
       <c r="AB105" s="5">
         <f>'Mortgage Performance'!AB30</f>
-        <v>3.0541587904924219</v>
+        <v>3.0546583790169382</v>
       </c>
       <c r="AC105" s="5">
         <f>'Mortgage Performance'!AC30</f>
-        <v>21.589313560000001</v>
+        <v>21.589321940000001</v>
       </c>
       <c r="AD105" s="5">
         <f>'Mortgage Performance'!AD30</f>
-        <v>25.306820649999999</v>
+        <v>25.306979850000001</v>
       </c>
       <c r="AE105" s="5">
         <f>'Mortgage Performance'!AE30</f>
-        <v>0.11411219</v>
+        <v>0.11401465000000001</v>
       </c>
       <c r="AF105" s="5">
         <f>'Mortgage Performance'!AF30</f>
-        <v>0.32520748999999999</v>
+        <v>0.25368638999999998</v>
       </c>
       <c r="AG105" s="5">
         <f>'Mortgage Performance'!AG30</f>
-        <v>451.26878521170602</v>
+        <v>450.96364448490198</v>
       </c>
       <c r="AH105" s="5">
         <f>'Mortgage Performance'!AH30</f>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="AF106" s="5">
         <f>'Mortgage Performance'!AF31</f>
-        <v>0.65067312999999993</v>
+        <v>0.63348300000000002</v>
       </c>
       <c r="AG106" s="5">
         <f>'Mortgage Performance'!AG31</f>
@@ -7917,15 +7917,15 @@
       </c>
       <c r="E107" s="5">
         <f>'Mortgage Performance'!E34</f>
-        <v>104.1384890954</v>
+        <v>104.1415870548</v>
       </c>
       <c r="F107" s="5">
         <f>'Mortgage Performance'!F34</f>
-        <v>103.83276234284068</v>
+        <v>103.83585397766885</v>
       </c>
       <c r="G107" s="5">
         <f>'Mortgage Performance'!G34</f>
-        <v>8629.5408783135008</v>
+        <v>8629.7978240840694</v>
       </c>
       <c r="H107" s="5">
         <f>'Mortgage Performance'!H34</f>
@@ -7965,11 +7965,11 @@
       </c>
       <c r="Q107" s="5">
         <f>'Mortgage Performance'!Q34</f>
-        <v>2.0994472599999998</v>
+        <v>2.0974512199999999</v>
       </c>
       <c r="R107" s="5">
         <f>'Mortgage Performance'!R34</f>
-        <v>0.13189656999999988</v>
+        <v>0.13189688999999999</v>
       </c>
       <c r="S107" s="5">
         <f>'Mortgage Performance'!S34</f>
@@ -7977,15 +7977,15 @@
       </c>
       <c r="T107" s="5">
         <f>'Mortgage Performance'!T34</f>
-        <v>0.24569706999999999</v>
+        <v>0.24569001000000001</v>
       </c>
       <c r="U107" s="5">
         <f>'Mortgage Performance'!U34</f>
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="V107" s="5">
         <f>'Mortgage Performance'!V34</f>
-        <v>1.7373184500000001</v>
+        <v>1.7353294700000002</v>
       </c>
       <c r="W107" s="5">
         <f>'Mortgage Performance'!W34</f>
@@ -7993,11 +7993,11 @@
       </c>
       <c r="X107" s="5">
         <f>'Mortgage Performance'!X34</f>
-        <v>1.4911198157486059</v>
+        <v>1.4911492420959676</v>
       </c>
       <c r="Y107" s="5">
         <f>'Mortgage Performance'!Y34</f>
-        <v>-7.5109368280194197E-2</v>
+        <v>-7.5107084440931351E-2</v>
       </c>
       <c r="Z107" s="5">
         <f>'Mortgage Performance'!Z34</f>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="AA107" s="5">
         <f>'Mortgage Performance'!AA34</f>
-        <v>0.3307384531</v>
+        <v>0.33076397260000001</v>
       </c>
       <c r="AB107" s="5">
         <f>'Mortgage Performance'!AB34</f>
-        <v>1.4967336931243069</v>
+        <v>1.4967630676702746</v>
       </c>
       <c r="AC107" s="5">
         <f>'Mortgage Performance'!AC34</f>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="AG107" s="5">
         <f>'Mortgage Performance'!AG34</f>
-        <v>31.5925024392273</v>
+        <v>31.593155992823203</v>
       </c>
       <c r="AH107" s="5">
         <f>'Mortgage Performance'!AH34</f>
@@ -8120,15 +8120,15 @@
       </c>
       <c r="E108" s="5">
         <f>'Mortgage Performance'!E35</f>
-        <v>104.1384890954</v>
+        <v>104.1415870548</v>
       </c>
       <c r="F108" s="5">
         <f>'Mortgage Performance'!F35</f>
-        <v>103.83276234284077</v>
+        <v>103.8358539776689</v>
       </c>
       <c r="G108" s="5">
         <f>'Mortgage Performance'!G35</f>
-        <v>560.69691665133905</v>
+        <v>560.71361147941104</v>
       </c>
       <c r="H108" s="5">
         <f>'Mortgage Performance'!H35</f>
@@ -8168,11 +8168,11 @@
       </c>
       <c r="Q108" s="5">
         <f>'Mortgage Performance'!Q35</f>
-        <v>2.0994472599999998</v>
+        <v>2.0974512199999999</v>
       </c>
       <c r="R108" s="5">
         <f>'Mortgage Performance'!R35</f>
-        <v>0.13189656999999988</v>
+        <v>0.13189688999999999</v>
       </c>
       <c r="S108" s="5">
         <f>'Mortgage Performance'!S35</f>
@@ -8180,15 +8180,15 @@
       </c>
       <c r="T108" s="5">
         <f>'Mortgage Performance'!T35</f>
-        <v>0.24569706999999999</v>
+        <v>0.24569001000000001</v>
       </c>
       <c r="U108" s="5">
         <f>'Mortgage Performance'!U35</f>
-        <v>1.7218547000000002</v>
+        <v>1.7198654</v>
       </c>
       <c r="V108" s="5">
         <f>'Mortgage Performance'!V35</f>
-        <v>1.7373184500000001</v>
+        <v>1.7353294700000002</v>
       </c>
       <c r="W108" s="5">
         <f>'Mortgage Performance'!W35</f>
@@ -8196,11 +8196,11 @@
       </c>
       <c r="X108" s="5">
         <f>'Mortgage Performance'!X35</f>
-        <v>1.4911198157477936</v>
+        <v>1.4911492420969357</v>
       </c>
       <c r="Y108" s="5">
         <f>'Mortgage Performance'!Y35</f>
-        <v>-7.5109368288271847E-2</v>
+        <v>-7.5107084433497409E-2</v>
       </c>
       <c r="Z108" s="5">
         <f>'Mortgage Performance'!Z35</f>
@@ -8208,11 +8208,11 @@
       </c>
       <c r="AA108" s="5">
         <f>'Mortgage Performance'!AA35</f>
-        <v>0.3307384531</v>
+        <v>0.33076397260000001</v>
       </c>
       <c r="AB108" s="5">
         <f>'Mortgage Performance'!AB35</f>
-        <v>1.4967336931242698</v>
+        <v>1.4967630676703649</v>
       </c>
       <c r="AC108" s="5">
         <f>'Mortgage Performance'!AC35</f>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="AG108" s="5">
         <f>'Mortgage Performance'!AG35</f>
-        <v>2.0526953816849001</v>
+        <v>2.0527378457615999</v>
       </c>
       <c r="AH108" s="5">
         <f>'Mortgage Performance'!AH35</f>
@@ -8323,15 +8323,15 @@
       </c>
       <c r="E109" s="5">
         <f>'Mortgage Performance'!E38</f>
-        <v>105.2500088668</v>
+        <v>105.25311531289999</v>
       </c>
       <c r="F109" s="5">
         <f>'Mortgage Performance'!F38</f>
-        <v>104.94326161267483</v>
+        <v>104.94636175260847</v>
       </c>
       <c r="G109" s="5">
         <f>'Mortgage Performance'!G38</f>
-        <v>2181.7704089275098</v>
+        <v>2181.8348608367301</v>
       </c>
       <c r="H109" s="5">
         <f>'Mortgage Performance'!H38</f>
@@ -8371,11 +8371,11 @@
       </c>
       <c r="Q109" s="5">
         <f>'Mortgage Performance'!Q38</f>
-        <v>2.0959585000000001</v>
+        <v>2.0939783200000002</v>
       </c>
       <c r="R109" s="5">
         <f>'Mortgage Performance'!R38</f>
-        <v>0.13189781999999992</v>
+        <v>0.13189814000000002</v>
       </c>
       <c r="S109" s="5">
         <f>'Mortgage Performance'!S38</f>
@@ -8383,15 +8383,15 @@
       </c>
       <c r="T109" s="5">
         <f>'Mortgage Performance'!T38</f>
-        <v>0.24403776999999999</v>
+        <v>0.24403082000000001</v>
       </c>
       <c r="U109" s="5">
         <f>'Mortgage Performance'!U38</f>
-        <v>1.7200239900000001</v>
+        <v>1.7180504400000001</v>
       </c>
       <c r="V109" s="5">
         <f>'Mortgage Performance'!V38</f>
-        <v>1.7353542900000001</v>
+        <v>1.7333810500000002</v>
       </c>
       <c r="W109" s="5">
         <f>'Mortgage Performance'!W38</f>
@@ -8399,11 +8399,11 @@
       </c>
       <c r="X109" s="5">
         <f>'Mortgage Performance'!X38</f>
-        <v>1.4912032717408166</v>
+        <v>1.4912324662358987</v>
       </c>
       <c r="Y109" s="5">
         <f>'Mortgage Performance'!Y38</f>
-        <v>-7.5096453379067854E-2</v>
+        <v>-7.5094187483297922E-2</v>
       </c>
       <c r="Z109" s="5">
         <f>'Mortgage Performance'!Z38</f>
@@ -8411,11 +8411,11 @@
       </c>
       <c r="AA109" s="5">
         <f>'Mortgage Performance'!AA38</f>
-        <v>0.3387246927</v>
+        <v>0.33874989970000002</v>
       </c>
       <c r="AB109" s="5">
         <f>'Mortgage Performance'!AB38</f>
-        <v>1.4968166541594254</v>
+        <v>1.4968457972582918</v>
       </c>
       <c r="AC109" s="5">
         <f>'Mortgage Performance'!AC38</f>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="AG109" s="5">
         <f>'Mortgage Performance'!AG38</f>
-        <v>7.9292566543103007</v>
+        <v>7.9294196647074005</v>
       </c>
       <c r="AH109" s="5">
         <f>'Mortgage Performance'!AH38</f>
@@ -8526,15 +8526,15 @@
       </c>
       <c r="E110" s="5">
         <f>'Mortgage Performance'!E41</f>
-        <v>117.01478496676501</v>
+        <v>116.98572076821</v>
       </c>
       <c r="F110" s="5">
         <f>'Mortgage Performance'!F41</f>
-        <v>116.43600380059979</v>
+        <v>116.40704329872888</v>
       </c>
       <c r="G110" s="5">
         <f>'Mortgage Performance'!G41</f>
-        <v>9976.2368056354007</v>
+        <v>9973.7554698351014</v>
       </c>
       <c r="H110" s="5">
         <f>'Mortgage Performance'!H41</f>
@@ -8574,51 +8574,51 @@
       </c>
       <c r="Q110" s="5">
         <f>'Mortgage Performance'!Q41</f>
-        <v>2.0346510486883562</v>
+        <v>2.0419716546706788</v>
       </c>
       <c r="R110" s="5">
         <f>'Mortgage Performance'!R41</f>
-        <v>0.22463407474585848</v>
+        <v>0.22462609123771954</v>
       </c>
       <c r="S110" s="5">
         <f>'Mortgage Performance'!S41</f>
-        <v>1.7721452941656199E-5</v>
+        <v>1.7809329200517102E-5</v>
       </c>
       <c r="T110" s="5">
         <f>'Mortgage Performance'!T41</f>
-        <v>0.25676485943643601</v>
+        <v>0.25680270537226901</v>
       </c>
       <c r="U110" s="5">
         <f>'Mortgage Performance'!U41</f>
-        <v>1.5532343930531201</v>
+        <v>1.5605250487314897</v>
       </c>
       <c r="V110" s="5">
         <f>'Mortgage Performance'!V41</f>
-        <v>1.5489928637836499</v>
+        <v>1.5562820576527598</v>
       </c>
       <c r="W110" s="5">
         <f>'Mortgage Performance'!W41</f>
-        <v>3.4698543267522104</v>
+        <v>3.4697492751020902</v>
       </c>
       <c r="X110" s="5">
         <f>'Mortgage Performance'!X41</f>
-        <v>3.0556412959593695</v>
+        <v>3.0553491771233015</v>
       </c>
       <c r="Y110" s="5">
         <f>'Mortgage Performance'!Y41</f>
-        <v>0.10273252435381752</v>
+        <v>0.10270924500509918</v>
       </c>
       <c r="Z110" s="5">
         <f>'Mortgage Performance'!Z41</f>
-        <v>9.9093372475249701E-6</v>
+        <v>9.9118025569406607E-6</v>
       </c>
       <c r="AA110" s="5">
         <f>'Mortgage Performance'!AA41</f>
-        <v>0.76318847767426401</v>
+        <v>0.76279785733468897</v>
       </c>
       <c r="AB110" s="5">
         <f>'Mortgage Performance'!AB41</f>
-        <v>3.0566434794575144</v>
+        <v>3.0563515158141641</v>
       </c>
       <c r="AC110" s="5">
         <f>'Mortgage Performance'!AC41</f>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="AG110" s="5">
         <f>'Mortgage Performance'!AG41</f>
-        <v>86.0250240000574</v>
+        <v>86.009611426150997</v>
       </c>
       <c r="AH110" s="5">
         <f>'Mortgage Performance'!AH41</f>
@@ -8729,15 +8729,15 @@
       </c>
       <c r="E111" s="5">
         <f>'Mortgage Performance'!E44</f>
-        <v>106.63704614730001</v>
+        <v>106.64338391569999</v>
       </c>
       <c r="F111" s="5">
         <f>'Mortgage Performance'!F44</f>
-        <v>106.31988921025581</v>
+        <v>106.32621237223124</v>
       </c>
       <c r="G111" s="5">
         <f>'Mortgage Performance'!G44</f>
-        <v>5498.8646699544306</v>
+        <v>5499.1917038918</v>
       </c>
       <c r="H111" s="5">
         <f>'Mortgage Performance'!H44</f>
@@ -8777,51 +8777,51 @@
       </c>
       <c r="Q111" s="5">
         <f>'Mortgage Performance'!Q44</f>
-        <v>2.9086846400000002</v>
+        <v>2.90480078</v>
       </c>
       <c r="R111" s="5">
         <f>'Mortgage Performance'!R44</f>
-        <v>0.15320475000000022</v>
+        <v>0.15320652000000012</v>
       </c>
       <c r="S111" s="5">
         <f>'Mortgage Performance'!S44</f>
-        <v>-1.8860000000000002E-5</v>
+        <v>-1.8870000000000001E-5</v>
       </c>
       <c r="T111" s="5">
         <f>'Mortgage Performance'!T44</f>
-        <v>0.61155354000000006</v>
+        <v>0.61151603999999993</v>
       </c>
       <c r="U111" s="5">
         <f>'Mortgage Performance'!U44</f>
-        <v>2.14394521</v>
+        <v>2.1400970899999998</v>
       </c>
       <c r="V111" s="5">
         <f>'Mortgage Performance'!V44</f>
-        <v>2.1787610700000002</v>
+        <v>2.1749147099999999</v>
       </c>
       <c r="W111" s="5">
         <f>'Mortgage Performance'!W44</f>
-        <v>1.6322213529999998</v>
+        <v>1.632221353</v>
       </c>
       <c r="X111" s="5">
         <f>'Mortgage Performance'!X44</f>
-        <v>1.5390142565464375</v>
+        <v>1.5390881915364503</v>
       </c>
       <c r="Y111" s="5">
         <f>'Mortgage Performance'!Y44</f>
-        <v>-8.5174422708358205E-2</v>
+        <v>-8.5168333951021344E-2</v>
       </c>
       <c r="Z111" s="5">
         <f>'Mortgage Performance'!Z44</f>
-        <v>1.32199932E-2</v>
+        <v>1.32330269E-2</v>
       </c>
       <c r="AA111" s="5">
         <f>'Mortgage Performance'!AA44</f>
-        <v>0.56192684940000004</v>
+        <v>0.56198638670000001</v>
       </c>
       <c r="AB111" s="5">
         <f>'Mortgage Performance'!AB44</f>
-        <v>1.5454260756757596</v>
+        <v>1.5454998797378086</v>
       </c>
       <c r="AC111" s="5">
         <f>'Mortgage Performance'!AC44</f>
@@ -8837,11 +8837,11 @@
       </c>
       <c r="AF111" s="5">
         <f>'Mortgage Performance'!AF44</f>
-        <v>0.62371706000000005</v>
+        <v>0.62371692000000001</v>
       </c>
       <c r="AG111" s="5">
         <f>'Mortgage Performance'!AG44</f>
-        <v>51.603846848438401</v>
+        <v>51.606223380627199</v>
       </c>
       <c r="AH111" s="5">
         <f>'Mortgage Performance'!AH44</f>
@@ -8932,15 +8932,15 @@
       </c>
       <c r="E112" s="5">
         <f>'Mortgage Performance'!E45</f>
-        <v>102.37639763180002</v>
+        <v>102.3400692025</v>
       </c>
       <c r="F112" s="5">
         <f>'Mortgage Performance'!F45</f>
-        <v>102.03215982457098</v>
+        <v>101.99592192878434</v>
       </c>
       <c r="G112" s="5">
         <f>'Mortgage Performance'!G45</f>
-        <v>3572.1459154582299</v>
+        <v>3570.87722672674</v>
       </c>
       <c r="H112" s="5">
         <f>'Mortgage Performance'!H45</f>
@@ -8980,27 +8980,27 @@
       </c>
       <c r="Q112" s="5">
         <f>'Mortgage Performance'!Q45</f>
-        <v>5.77005722</v>
+        <v>5.7918398900000003</v>
       </c>
       <c r="R112" s="5">
         <f>'Mortgage Performance'!R45</f>
-        <v>0.15944853000000012</v>
+        <v>0.15943865000000021</v>
       </c>
       <c r="S112" s="5">
         <f>'Mortgage Performance'!S45</f>
-        <v>-4.0399999999999999E-5</v>
+        <v>-4.0179999999999998E-5</v>
       </c>
       <c r="T112" s="5">
         <f>'Mortgage Performance'!T45</f>
-        <v>1.8960054899999998</v>
+        <v>1.8966702500000006</v>
       </c>
       <c r="U112" s="5">
         <f>'Mortgage Performance'!U45</f>
-        <v>3.7146435999999996</v>
+        <v>3.7357711699999996</v>
       </c>
       <c r="V112" s="5">
         <f>'Mortgage Performance'!V45</f>
-        <v>3.7501480099999998</v>
+        <v>3.7712659199999998</v>
       </c>
       <c r="W112" s="5">
         <f>'Mortgage Performance'!W45</f>
@@ -9008,23 +9008,23 @@
       </c>
       <c r="X112" s="5">
         <f>'Mortgage Performance'!X45</f>
-        <v>1.6759779377509993</v>
+        <v>1.6755466270298918</v>
       </c>
       <c r="Y112" s="5">
         <f>'Mortgage Performance'!Y45</f>
-        <v>-6.2797545118705556E-2</v>
+        <v>-6.2834212702264039E-2</v>
       </c>
       <c r="Z112" s="5">
         <f>'Mortgage Performance'!Z45</f>
-        <v>2.3542666E-3</v>
+        <v>2.3099988E-3</v>
       </c>
       <c r="AA112" s="5">
         <f>'Mortgage Performance'!AA45</f>
-        <v>1.2941587534999999</v>
+        <v>1.2938544175</v>
       </c>
       <c r="AB112" s="5">
         <f>'Mortgage Performance'!AB45</f>
-        <v>1.6815506426504971</v>
+        <v>1.6811201194104357</v>
       </c>
       <c r="AC112" s="5">
         <f>'Mortgage Performance'!AC45</f>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="AG112" s="5">
         <f>'Mortgage Performance'!AG45</f>
-        <v>112.78867427367</v>
+        <v>112.75901118509501</v>
       </c>
       <c r="AH112" s="5">
         <f>'Mortgage Performance'!AH45</f>
@@ -9135,15 +9135,15 @@
       </c>
       <c r="E113" s="5">
         <f>'Mortgage Performance'!E48</f>
-        <v>116.81125361150001</v>
+        <v>116.773508697</v>
       </c>
       <c r="F113" s="5">
         <f>'Mortgage Performance'!F48</f>
-        <v>116.06778269230513</v>
+        <v>116.03017565749217</v>
       </c>
       <c r="G113" s="5">
         <f>'Mortgage Performance'!G48</f>
-        <v>1110.7686803653601</v>
+        <v>1110.4087810422</v>
       </c>
       <c r="H113" s="5">
         <f>'Mortgage Performance'!H48</f>
@@ -9183,39 +9183,39 @@
       </c>
       <c r="Q113" s="5">
         <f>'Mortgage Performance'!Q48</f>
-        <v>2.3869120399999999</v>
+        <v>2.3963960000000002</v>
       </c>
       <c r="R113" s="5">
         <f>'Mortgage Performance'!R48</f>
-        <v>0.25110778000000028</v>
+        <v>0.25110564000000002</v>
       </c>
       <c r="S113" s="5">
         <f>'Mortgage Performance'!S48</f>
-        <v>2.2310000000000002E-5</v>
+        <v>2.243E-5</v>
       </c>
       <c r="T113" s="5">
         <f>'Mortgage Performance'!T48</f>
-        <v>0.32490353</v>
+        <v>0.32497375000000001</v>
       </c>
       <c r="U113" s="5">
         <f>'Mortgage Performance'!U48</f>
-        <v>1.8108784199999999</v>
+        <v>1.8202941800000001</v>
       </c>
       <c r="V113" s="5">
         <f>'Mortgage Performance'!V48</f>
-        <v>1.8072868700000002</v>
+        <v>1.81670061</v>
       </c>
       <c r="W113" s="5">
         <f>'Mortgage Performance'!W48</f>
-        <v>3.8921105444999999</v>
+        <v>3.8921105444999995</v>
       </c>
       <c r="X113" s="5">
         <f>'Mortgage Performance'!X48</f>
-        <v>3.4407239106551923</v>
+        <v>3.440459683927704</v>
       </c>
       <c r="Y113" s="5">
         <f>'Mortgage Performance'!Y48</f>
-        <v>0.12423421927420432</v>
+        <v>0.12420994849474094</v>
       </c>
       <c r="Z113" s="5">
         <f>'Mortgage Performance'!Z48</f>
@@ -9223,11 +9223,11 @@
       </c>
       <c r="AA113" s="5">
         <f>'Mortgage Performance'!AA48</f>
-        <v>0.90151935279999995</v>
+        <v>0.90105736859999996</v>
       </c>
       <c r="AB113" s="5">
         <f>'Mortgage Performance'!AB48</f>
-        <v>3.4418370780426137</v>
+        <v>3.4415731038601671</v>
       </c>
       <c r="AC113" s="5">
         <f>'Mortgage Performance'!AC48</f>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="AG113" s="5">
         <f>'Mortgage Performance'!AG48</f>
-        <v>12.3426063427634</v>
+        <v>12.340317356243901</v>
       </c>
       <c r="AH113" s="5">
         <f>'Mortgage Performance'!AH48</f>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_Loan_Portfolio_Analytics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F002E-0E3C-45D6-A7A8-A8B2A7043DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E904F6A6-4426-44A6-8B4A-3DD65457F302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Performance" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: December, 2020           Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 03/14/2021 4:44:47AM</t>
+    <t>Printed on: 04/08/2021 4:47:12AM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -1036,7 +1036,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-A59C-4402-B28E-6DBB4C4B8BEE}"/>
+                <c16:uniqueId val="{00000000-20C7-4657-AA84-B32B465761B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1050,7 +1050,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A59C-4402-B28E-6DBB4C4B8BEE}"/>
+                <c16:uniqueId val="{00000001-20C7-4657-AA84-B32B465761B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1064,7 +1064,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-A59C-4402-B28E-6DBB4C4B8BEE}"/>
+                <c16:uniqueId val="{00000002-20C7-4657-AA84-B32B465761B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1078,7 +1078,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A59C-4402-B28E-6DBB4C4B8BEE}"/>
+                <c16:uniqueId val="{00000003-20C7-4657-AA84-B32B465761B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1116,7 +1116,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A59C-4402-B28E-6DBB4C4B8BEE}"/>
+                  <c16:uniqueId val="{00000002-20C7-4657-AA84-B32B465761B5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1217,7 +1217,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A59C-4402-B28E-6DBB4C4B8BEE}"/>
+              <c16:uniqueId val="{00000004-20C7-4657-AA84-B32B465761B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1320,7 +1320,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-E9C4-425B-B76A-08EA3E3D46DC}"/>
+                <c16:uniqueId val="{00000000-A6A2-4249-9049-368438651FD9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1334,7 +1334,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9C4-425B-B76A-08EA3E3D46DC}"/>
+                <c16:uniqueId val="{00000001-A6A2-4249-9049-368438651FD9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1348,7 +1348,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-E9C4-425B-B76A-08EA3E3D46DC}"/>
+                <c16:uniqueId val="{00000002-A6A2-4249-9049-368438651FD9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1362,7 +1362,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9C4-425B-B76A-08EA3E3D46DC}"/>
+                <c16:uniqueId val="{00000003-A6A2-4249-9049-368438651FD9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1428,7 +1428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E9C4-425B-B76A-08EA3E3D46DC}"/>
+              <c16:uniqueId val="{00000004-A6A2-4249-9049-368438651FD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2574,15 +2574,15 @@
       <c r="D10" s="61"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>1.6222340978902468</v>
+        <v>1.6222340980754513</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>112.40067248157717</v>
+        <v>112.40067245718176</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>111.82195085979579</v>
+        <v>111.82195083543681</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2904,15 +2904,15 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!E101:E114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>110.05827546177993</v>
+        <v>110.05827543779527</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!F101:F114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>109.49161422871531</v>
+        <v>109.49161420476683</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G114)</f>
-        <v>109628.47874650123</v>
+        <v>109628.47872252282</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H114)</f>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="N17" s="17">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!N101:N114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>229.46152712183454</v>
+        <v>229.46152714578002</v>
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!O101:O114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
@@ -2946,51 +2946,51 @@
       </c>
       <c r="Q17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Q101:Q114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.424816885840734</v>
+        <v>2.4248168862180703</v>
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!R101:R114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.34456223146758175</v>
+        <v>0.34456223147252185</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!S101:S114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-5.3314980309144298E-2</v>
+        <v>-5.331498032080785E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!T101:T114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.33098684673180923</v>
+        <v>0.33098684692373764</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!U101:U114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.8025827879504872</v>
+        <v>1.8025827881426191</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!V101:V114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.9140084259695991</v>
+        <v>1.914008425890479</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!W101:W114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.8917534551602113</v>
+        <v>2.8917534550682418</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!X101:X114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.1593486310229406</v>
+        <v>2.1593483650025034</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-0.35396603158670709</v>
+        <v>-0.35397134694732035</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>3.6434909232639041E-2</v>
+        <v>3.6434908971684152E-2</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.85637742887075741</v>
+        <v>0.85637742807590034</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.6518439356407737</v>
+        <v>2.6518439351188339</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG114)</f>
-        <v>879.84621151528404</v>
+        <v>879.84621147133612</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3504,13 +3504,13 @@
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="23">
-        <v>106.9629606243</v>
+        <v>106.962959715</v>
       </c>
       <c r="F27" s="23">
-        <v>106.5000005886524</v>
+        <v>106.49999968072305</v>
       </c>
       <c r="G27" s="26">
-        <v>2065.0350114139701</v>
+        <v>2065.0349938092199</v>
       </c>
       <c r="H27" s="26">
         <v>1939</v>
@@ -3534,40 +3534,40 @@
         <v>75</v>
       </c>
       <c r="Q27" s="30">
-        <v>3.0456438299999999</v>
+        <v>3.0456438499999998</v>
       </c>
       <c r="R27" s="30">
-        <v>0.3219758199999998</v>
+        <v>0.32197582000000019</v>
       </c>
       <c r="S27" s="30">
         <v>1.039E-5</v>
       </c>
       <c r="T27" s="30">
-        <v>0.62649506999999993</v>
+        <v>0.62649507999999998</v>
       </c>
       <c r="U27" s="30">
-        <v>2.0971625500000002</v>
+        <v>2.0971625599999997</v>
       </c>
       <c r="V27" s="30">
         <v>2.2757418899999999</v>
       </c>
       <c r="W27" s="23">
-        <v>2.4442177936</v>
+        <v>2.4442177861999999</v>
       </c>
       <c r="X27" s="23">
-        <v>0.84644766746987798</v>
+        <v>0.84643728767066462</v>
       </c>
       <c r="Y27" s="23">
-        <v>-0.11218897298010655</v>
+        <v>-0.11239614630932863</v>
       </c>
       <c r="Z27" s="31">
-        <v>3.3052886300000001E-2</v>
+        <v>3.3052876100000003E-2</v>
       </c>
       <c r="AA27" s="23">
-        <v>0.99489934950000003</v>
+        <v>0.99489931970000001</v>
       </c>
       <c r="AB27" s="23">
-        <v>2.2668247286300516</v>
+        <v>2.2668247050042161</v>
       </c>
       <c r="AC27" s="23">
         <v>24.999814410000003</v>
@@ -3582,7 +3582,7 @@
         <v>0.63348300000000002</v>
       </c>
       <c r="AG27" s="26">
-        <v>29.0521466005831</v>
+        <v>29.0521465683169</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3754,13 +3754,13 @@
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="23">
-        <v>106.96296062429998</v>
+        <v>106.962959715</v>
       </c>
       <c r="F31" s="23">
-        <v>106.5000005886527</v>
+        <v>106.49999968072321</v>
       </c>
       <c r="G31" s="26">
-        <v>747.63000413234192</v>
+        <v>747.62999775867695</v>
       </c>
       <c r="H31" s="26">
         <v>702</v>
@@ -3784,40 +3784,40 @@
         <v>75</v>
       </c>
       <c r="Q31" s="30">
-        <v>3.0456438299999999</v>
+        <v>3.0456438500000003</v>
       </c>
       <c r="R31" s="30">
-        <v>0.3219758199999998</v>
+        <v>0.32197582000000052</v>
       </c>
       <c r="S31" s="30">
-        <v>1.0389999999999999E-5</v>
+        <v>1.039E-5</v>
       </c>
       <c r="T31" s="30">
-        <v>0.62649506999999993</v>
+        <v>0.62649507999999998</v>
       </c>
       <c r="U31" s="30">
-        <v>2.0971625500000002</v>
+        <v>2.0971625599999997</v>
       </c>
       <c r="V31" s="30">
         <v>2.2757418899999999</v>
       </c>
       <c r="W31" s="23">
-        <v>2.4442177936</v>
+        <v>2.4442177861999999</v>
       </c>
       <c r="X31" s="23">
-        <v>0.84644766746939892</v>
+        <v>0.84643728767118631</v>
       </c>
       <c r="Y31" s="23">
-        <v>-0.1121889730417439</v>
+        <v>-0.11239614627755835</v>
       </c>
       <c r="Z31" s="31">
-        <v>3.3052886300000001E-2</v>
+        <v>3.3052876100000003E-2</v>
       </c>
       <c r="AA31" s="23">
-        <v>0.99489934949999992</v>
+        <v>0.99489931970000001</v>
       </c>
       <c r="AB31" s="23">
-        <v>2.2668247286294321</v>
+        <v>2.2668247050034522</v>
       </c>
       <c r="AC31" s="23">
         <v>24.999814409999999</v>
@@ -3832,7 +3832,7 @@
         <v>0.63348300000000002</v>
       </c>
       <c r="AG31" s="26">
-        <v>10.5181056800461</v>
+        <v>10.518105668364299</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7308,15 +7308,15 @@
       </c>
       <c r="E104" s="5">
         <f>'Mortgage Performance'!E27</f>
-        <v>106.9629606243</v>
+        <v>106.962959715</v>
       </c>
       <c r="F104" s="5">
         <f>'Mortgage Performance'!F27</f>
-        <v>106.5000005886524</v>
+        <v>106.49999968072305</v>
       </c>
       <c r="G104" s="5">
         <f>'Mortgage Performance'!G27</f>
-        <v>2065.0350114139701</v>
+        <v>2065.0349938092199</v>
       </c>
       <c r="H104" s="5">
         <f>'Mortgage Performance'!H27</f>
@@ -7356,11 +7356,11 @@
       </c>
       <c r="Q104" s="5">
         <f>'Mortgage Performance'!Q27</f>
-        <v>3.0456438299999999</v>
+        <v>3.0456438499999998</v>
       </c>
       <c r="R104" s="5">
         <f>'Mortgage Performance'!R27</f>
-        <v>0.3219758199999998</v>
+        <v>0.32197582000000019</v>
       </c>
       <c r="S104" s="5">
         <f>'Mortgage Performance'!S27</f>
@@ -7368,11 +7368,11 @@
       </c>
       <c r="T104" s="5">
         <f>'Mortgage Performance'!T27</f>
-        <v>0.62649506999999993</v>
+        <v>0.62649507999999998</v>
       </c>
       <c r="U104" s="5">
         <f>'Mortgage Performance'!U27</f>
-        <v>2.0971625500000002</v>
+        <v>2.0971625599999997</v>
       </c>
       <c r="V104" s="5">
         <f>'Mortgage Performance'!V27</f>
@@ -7380,27 +7380,27 @@
       </c>
       <c r="W104" s="5">
         <f>'Mortgage Performance'!W27</f>
-        <v>2.4442177936</v>
+        <v>2.4442177861999999</v>
       </c>
       <c r="X104" s="5">
         <f>'Mortgage Performance'!X27</f>
-        <v>0.84644766746987798</v>
+        <v>0.84643728767066462</v>
       </c>
       <c r="Y104" s="5">
         <f>'Mortgage Performance'!Y27</f>
-        <v>-0.11218897298010655</v>
+        <v>-0.11239614630932863</v>
       </c>
       <c r="Z104" s="5">
         <f>'Mortgage Performance'!Z27</f>
-        <v>3.3052886300000001E-2</v>
+        <v>3.3052876100000003E-2</v>
       </c>
       <c r="AA104" s="5">
         <f>'Mortgage Performance'!AA27</f>
-        <v>0.99489934950000003</v>
+        <v>0.99489931970000001</v>
       </c>
       <c r="AB104" s="5">
         <f>'Mortgage Performance'!AB27</f>
-        <v>2.2668247286300516</v>
+        <v>2.2668247050042161</v>
       </c>
       <c r="AC104" s="5">
         <f>'Mortgage Performance'!AC27</f>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="AG104" s="5">
         <f>'Mortgage Performance'!AG27</f>
-        <v>29.0521466005831</v>
+        <v>29.0521465683169</v>
       </c>
       <c r="AH104" s="5">
         <f>'Mortgage Performance'!AH27</f>
@@ -7714,15 +7714,15 @@
       </c>
       <c r="E106" s="5">
         <f>'Mortgage Performance'!E31</f>
-        <v>106.96296062429998</v>
+        <v>106.962959715</v>
       </c>
       <c r="F106" s="5">
         <f>'Mortgage Performance'!F31</f>
-        <v>106.5000005886527</v>
+        <v>106.49999968072321</v>
       </c>
       <c r="G106" s="5">
         <f>'Mortgage Performance'!G31</f>
-        <v>747.63000413234192</v>
+        <v>747.62999775867695</v>
       </c>
       <c r="H106" s="5">
         <f>'Mortgage Performance'!H31</f>
@@ -7762,23 +7762,23 @@
       </c>
       <c r="Q106" s="5">
         <f>'Mortgage Performance'!Q31</f>
-        <v>3.0456438299999999</v>
+        <v>3.0456438500000003</v>
       </c>
       <c r="R106" s="5">
         <f>'Mortgage Performance'!R31</f>
-        <v>0.3219758199999998</v>
+        <v>0.32197582000000052</v>
       </c>
       <c r="S106" s="5">
         <f>'Mortgage Performance'!S31</f>
-        <v>1.0389999999999999E-5</v>
+        <v>1.039E-5</v>
       </c>
       <c r="T106" s="5">
         <f>'Mortgage Performance'!T31</f>
-        <v>0.62649506999999993</v>
+        <v>0.62649507999999998</v>
       </c>
       <c r="U106" s="5">
         <f>'Mortgage Performance'!U31</f>
-        <v>2.0971625500000002</v>
+        <v>2.0971625599999997</v>
       </c>
       <c r="V106" s="5">
         <f>'Mortgage Performance'!V31</f>
@@ -7786,27 +7786,27 @@
       </c>
       <c r="W106" s="5">
         <f>'Mortgage Performance'!W31</f>
-        <v>2.4442177936</v>
+        <v>2.4442177861999999</v>
       </c>
       <c r="X106" s="5">
         <f>'Mortgage Performance'!X31</f>
-        <v>0.84644766746939892</v>
+        <v>0.84643728767118631</v>
       </c>
       <c r="Y106" s="5">
         <f>'Mortgage Performance'!Y31</f>
-        <v>-0.1121889730417439</v>
+        <v>-0.11239614627755835</v>
       </c>
       <c r="Z106" s="5">
         <f>'Mortgage Performance'!Z31</f>
-        <v>3.3052886300000001E-2</v>
+        <v>3.3052876100000003E-2</v>
       </c>
       <c r="AA106" s="5">
         <f>'Mortgage Performance'!AA31</f>
-        <v>0.99489934949999992</v>
+        <v>0.99489931970000001</v>
       </c>
       <c r="AB106" s="5">
         <f>'Mortgage Performance'!AB31</f>
-        <v>2.2668247286294321</v>
+        <v>2.2668247050034522</v>
       </c>
       <c r="AC106" s="5">
         <f>'Mortgage Performance'!AC31</f>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="AG106" s="5">
         <f>'Mortgage Performance'!AG31</f>
-        <v>10.5181056800461</v>
+        <v>10.518105668364299</v>
       </c>
       <c r="AH106" s="5">
         <f>'Mortgage Performance'!AH31</f>
